--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25程序员客栈项目开发报价单（因卓二期-整包）(移除APP端项目经理修改版).xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25程序员客栈项目开发报价单（因卓二期-整包）(移除APP端项目经理修改版).xlsx
@@ -1117,10 +1117,6 @@
     <t>创建收藏夹</t>
   </si>
   <si>
-    <t>卓师（Windows服务）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>试卷审阅</t>
   </si>
   <si>
@@ -1622,6 +1618,10 @@
   <si>
     <t>建议这块用H5实现,,和首页的接口有重复的部分，调整下后端工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓师（Windows服务）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2169,6 +2169,267 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2196,281 +2457,20 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3668,8 +3668,8 @@
   <dimension ref="A1:P273"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K18"/>
+      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J130" sqref="J130:J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3693,44 +3693,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="98" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="100"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3758,19 +3758,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>11</v>
@@ -3780,7 +3780,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="88" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3794,32 +3794,32 @@
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73">
         <v>3</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="73">
         <v>3</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73">
         <v>6</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="91" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="45" t="s">
@@ -3830,19 +3830,19 @@
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="45" t="s">
         <v>34</v>
       </c>
@@ -3851,19 +3851,19 @@
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="45" t="s">
         <v>36</v>
       </c>
@@ -3872,19 +3872,19 @@
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="45" t="s">
         <v>38</v>
       </c>
@@ -3893,19 +3893,19 @@
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
       <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="45" t="s">
         <v>40</v>
       </c>
@@ -3914,19 +3914,19 @@
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="45" t="s">
         <v>42</v>
       </c>
@@ -3935,38 +3935,38 @@
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="42"/>
     </row>
     <row r="12" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="45" t="s">
         <v>45</v>
       </c>
@@ -3975,18 +3975,18 @@
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="42"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="45" t="s">
         <v>47</v>
       </c>
@@ -3996,18 +3996,18 @@
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="45" t="s">
         <v>49</v>
       </c>
@@ -4017,18 +4017,18 @@
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
       <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="109"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="45" t="s">
         <v>51</v>
       </c>
@@ -4038,18 +4038,18 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="25" t="s">
         <v>53</v>
       </c>
@@ -4059,18 +4059,18 @@
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="109" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="91" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="45" t="s">
@@ -4082,18 +4082,18 @@
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="45" t="s">
         <v>58</v>
       </c>
@@ -4103,23 +4103,23 @@
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
       <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="91" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="94" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="47" t="s">
@@ -4130,28 +4130,28 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73">
         <v>1</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="73">
         <v>2</v>
       </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70">
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73">
         <v>2</v>
       </c>
       <c r="O19" s="42"/>
-      <c r="P19" s="55" t="s">
-        <v>439</v>
+      <c r="P19" s="142" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="92"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="47" t="s">
         <v>65</v>
       </c>
@@ -4160,63 +4160,63 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="143"/>
     </row>
     <row r="21" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
       <c r="O21" s="43"/>
-      <c r="P21" s="56"/>
+      <c r="P21" s="143"/>
     </row>
     <row r="22" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
       <c r="O22" s="43"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="143"/>
     </row>
     <row r="23" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="33" t="s">
         <v>67</v>
       </c>
@@ -4224,18 +4224,18 @@
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
       <c r="O23" s="42"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="143"/>
     </row>
     <row r="24" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="91"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="47" t="s">
         <v>68</v>
       </c>
@@ -4248,22 +4248,22 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
       <c r="O24" s="42"/>
-      <c r="P24" s="56"/>
+      <c r="P24" s="143"/>
     </row>
     <row r="25" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="96" t="s">
+      <c r="A25" s="89"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="94" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="47" t="s">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="56"/>
+      <c r="P25" s="143"/>
     </row>
     <row r="26" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="91"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="47" t="s">
         <v>75</v>
       </c>
@@ -4296,20 +4296,20 @@
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="143"/>
     </row>
     <row r="27" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="91"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="47" t="s">
         <v>77</v>
       </c>
@@ -4318,20 +4318,20 @@
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="143"/>
     </row>
     <row r="28" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="92"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="47" t="s">
         <v>79</v>
       </c>
@@ -4340,19 +4340,19 @@
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
       <c r="O28" s="42"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="143"/>
     </row>
     <row r="29" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="70" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="47" t="s">
@@ -4364,19 +4364,19 @@
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="143"/>
     </row>
     <row r="30" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="47" t="s">
         <v>67</v>
       </c>
@@ -4386,24 +4386,24 @@
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
       <c r="O30" s="42"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="143"/>
     </row>
     <row r="31" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="96" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="94" t="s">
         <v>86</v>
       </c>
       <c r="E31" s="47" t="s">
@@ -4414,28 +4414,28 @@
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70">
+      <c r="I31" s="73"/>
+      <c r="J31" s="73">
         <v>6</v>
       </c>
-      <c r="K31" s="70">
+      <c r="K31" s="73">
         <v>10</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70">
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73">
         <v>12</v>
       </c>
       <c r="O31" s="42"/>
-      <c r="P31" s="57" t="s">
-        <v>440</v>
+      <c r="P31" s="144" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="92"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="47" t="s">
         <v>89</v>
       </c>
@@ -4444,20 +4444,20 @@
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
       <c r="O32" s="42"/>
-      <c r="P32" s="58"/>
+      <c r="P32" s="145"/>
     </row>
     <row r="33" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96" t="s">
+      <c r="A33" s="89"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="47" t="s">
@@ -4468,20 +4468,20 @@
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
       <c r="O33" s="42"/>
-      <c r="P33" s="58"/>
+      <c r="P33" s="145"/>
     </row>
     <row r="34" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="47" t="s">
         <v>94</v>
       </c>
@@ -4492,20 +4492,20 @@
         <v>96</v>
       </c>
       <c r="H34" s="42"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
       <c r="O34" s="42"/>
-      <c r="P34" s="58"/>
+      <c r="P34" s="145"/>
     </row>
     <row r="35" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="47" t="s">
         <v>97</v>
       </c>
@@ -4514,20 +4514,20 @@
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
       <c r="O35" s="42"/>
-      <c r="P35" s="58"/>
+      <c r="P35" s="145"/>
     </row>
     <row r="36" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="47" t="s">
@@ -4538,20 +4538,20 @@
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
       <c r="O36" s="42"/>
-      <c r="P36" s="58"/>
+      <c r="P36" s="145"/>
     </row>
     <row r="37" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="47" t="s">
         <v>94</v>
       </c>
@@ -4560,20 +4560,20 @@
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
       <c r="O37" s="42"/>
-      <c r="P37" s="58"/>
+      <c r="P37" s="145"/>
     </row>
     <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="47" t="s">
         <v>97</v>
       </c>
@@ -4582,19 +4582,19 @@
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="58"/>
+      <c r="P38" s="145"/>
     </row>
     <row r="39" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="47" t="s">
         <v>100</v>
       </c>
@@ -4604,19 +4604,19 @@
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
       <c r="O39" s="42"/>
-      <c r="P39" s="58"/>
+      <c r="P39" s="145"/>
     </row>
     <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="47" t="s">
         <v>102</v>
       </c>
@@ -4626,20 +4626,20 @@
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="42"/>
-      <c r="P40" s="58"/>
+      <c r="P40" s="145"/>
     </row>
     <row r="41" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96" t="s">
+      <c r="A41" s="89"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="47" t="s">
@@ -4650,20 +4650,20 @@
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
       <c r="O41" s="42"/>
-      <c r="P41" s="58"/>
+      <c r="P41" s="145"/>
     </row>
     <row r="42" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="47" t="s">
         <v>107</v>
       </c>
@@ -4672,20 +4672,20 @@
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
       <c r="O42" s="42"/>
-      <c r="P42" s="58"/>
+      <c r="P42" s="145"/>
     </row>
     <row r="43" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96" t="s">
+      <c r="A43" s="89"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="47" t="s">
@@ -4696,20 +4696,20 @@
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
       <c r="O43" s="42"/>
-      <c r="P43" s="58"/>
+      <c r="P43" s="145"/>
     </row>
     <row r="44" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="47" t="s">
         <v>112</v>
       </c>
@@ -4718,40 +4718,40 @@
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
       <c r="O44" s="42"/>
-      <c r="P44" s="58"/>
+      <c r="P44" s="145"/>
     </row>
     <row r="45" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
       <c r="O45" s="42"/>
-      <c r="P45" s="58"/>
+      <c r="P45" s="145"/>
     </row>
     <row r="46" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="47" t="s">
         <v>115</v>
       </c>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
       <c r="O46" s="42"/>
-      <c r="P46" s="58"/>
+      <c r="P46" s="145"/>
     </row>
     <row r="47" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="47" t="s">
         <v>117</v>
       </c>
@@ -4782,20 +4782,20 @@
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="42"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
       <c r="O47" s="42"/>
-      <c r="P47" s="58"/>
+      <c r="P47" s="145"/>
     </row>
     <row r="48" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="47" t="s">
         <v>119</v>
       </c>
@@ -4804,20 +4804,20 @@
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="42"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
       <c r="O48" s="42"/>
-      <c r="P48" s="58"/>
+      <c r="P48" s="145"/>
     </row>
     <row r="49" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96" t="s">
+      <c r="A49" s="89"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70" t="s">
         <v>121</v>
       </c>
       <c r="E49" s="47" t="s">
@@ -4826,60 +4826,60 @@
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="42"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
       <c r="O49" s="42"/>
-      <c r="P49" s="58"/>
+      <c r="P49" s="145"/>
     </row>
     <row r="50" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="42"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
       <c r="O50" s="42"/>
-      <c r="P50" s="58"/>
+      <c r="P50" s="145"/>
     </row>
     <row r="51" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
       <c r="H51" s="42"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
       <c r="O51" s="42"/>
-      <c r="P51" s="58"/>
+      <c r="P51" s="145"/>
     </row>
     <row r="52" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96" t="s">
+      <c r="A52" s="89"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70" t="s">
         <v>125</v>
       </c>
       <c r="E52" s="47" t="s">
@@ -4890,20 +4890,20 @@
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
       <c r="O52" s="42"/>
-      <c r="P52" s="58"/>
+      <c r="P52" s="145"/>
     </row>
     <row r="53" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="47" t="s">
         <v>128</v>
       </c>
@@ -4912,20 +4912,20 @@
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
       <c r="O53" s="42"/>
-      <c r="P53" s="58"/>
+      <c r="P53" s="145"/>
     </row>
     <row r="54" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96" t="s">
+      <c r="A54" s="89"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70" t="s">
         <v>130</v>
       </c>
       <c r="E54" s="47" t="s">
@@ -4934,60 +4934,60 @@
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
       <c r="O54" s="42"/>
-      <c r="P54" s="58"/>
+      <c r="P54" s="145"/>
     </row>
     <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="47" t="s">
         <v>132</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
       <c r="H55" s="42"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
       <c r="O55" s="42"/>
-      <c r="P55" s="58"/>
+      <c r="P55" s="145"/>
     </row>
     <row r="56" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="47" t="s">
         <v>133</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
       <c r="O56" s="42"/>
-      <c r="P56" s="58"/>
+      <c r="P56" s="145"/>
     </row>
     <row r="57" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="47" t="s">
         <v>134</v>
       </c>
@@ -4996,19 +4996,19 @@
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="42"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
       <c r="O57" s="42"/>
-      <c r="P57" s="58"/>
+      <c r="P57" s="145"/>
     </row>
     <row r="58" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="96" t="s">
+      <c r="A58" s="89"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="47" t="s">
@@ -5020,28 +5020,28 @@
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="42"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70">
+      <c r="I58" s="73"/>
+      <c r="J58" s="73">
         <v>3</v>
       </c>
-      <c r="K58" s="70">
+      <c r="K58" s="73">
         <v>5</v>
       </c>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70">
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73">
         <v>6</v>
       </c>
       <c r="O58" s="42"/>
-      <c r="P58" s="57" t="s">
-        <v>441</v>
+      <c r="P58" s="144" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96" t="s">
+      <c r="A59" s="89"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="47" t="s">
@@ -5052,20 +5052,20 @@
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="42"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
       <c r="O59" s="42"/>
-      <c r="P59" s="58"/>
+      <c r="P59" s="145"/>
     </row>
     <row r="60" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -5076,20 +5076,20 @@
         <v>141</v>
       </c>
       <c r="H60" s="42"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
       <c r="O60" s="42"/>
-      <c r="P60" s="58"/>
+      <c r="P60" s="145"/>
     </row>
     <row r="61" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="47" t="s">
         <v>142</v>
       </c>
@@ -5098,20 +5098,20 @@
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="42"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
       <c r="O61" s="42"/>
-      <c r="P61" s="58"/>
+      <c r="P61" s="145"/>
     </row>
     <row r="62" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96" t="s">
+      <c r="A62" s="89"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70" t="s">
         <v>143</v>
       </c>
       <c r="E62" s="47" t="s">
@@ -5122,20 +5122,20 @@
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="42"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
       <c r="O62" s="42"/>
-      <c r="P62" s="58"/>
+      <c r="P62" s="145"/>
     </row>
     <row r="63" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="47" t="s">
         <v>94</v>
       </c>
@@ -5144,20 +5144,20 @@
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="42"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
       <c r="O63" s="42"/>
-      <c r="P63" s="58"/>
+      <c r="P63" s="145"/>
     </row>
     <row r="64" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="47" t="s">
         <v>142</v>
       </c>
@@ -5166,19 +5166,19 @@
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="42"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
       <c r="O64" s="42"/>
-      <c r="P64" s="58"/>
+      <c r="P64" s="145"/>
     </row>
     <row r="65" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="96"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="47" t="s">
         <v>144</v>
       </c>
@@ -5188,19 +5188,19 @@
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="42"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="74"/>
       <c r="O65" s="42"/>
-      <c r="P65" s="58"/>
+      <c r="P65" s="145"/>
     </row>
     <row r="66" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="47" t="s">
         <v>102</v>
       </c>
@@ -5210,20 +5210,20 @@
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="42"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
       <c r="O66" s="42"/>
-      <c r="P66" s="58"/>
+      <c r="P66" s="145"/>
     </row>
     <row r="67" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96" t="s">
+      <c r="A67" s="89"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="47" t="s">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="42"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
       <c r="O67" s="42"/>
-      <c r="P67" s="58"/>
+      <c r="P67" s="145"/>
     </row>
     <row r="68" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="47" t="s">
         <v>107</v>
       </c>
@@ -5256,20 +5256,20 @@
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="42"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
       <c r="O68" s="42"/>
-      <c r="P68" s="58"/>
+      <c r="P68" s="145"/>
     </row>
     <row r="69" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="47" t="s">
@@ -5280,20 +5280,20 @@
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="42"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
       <c r="O69" s="42"/>
-      <c r="P69" s="58"/>
+      <c r="P69" s="145"/>
     </row>
     <row r="70" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="47" t="s">
         <v>112</v>
       </c>
@@ -5302,40 +5302,40 @@
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="42"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
       <c r="O70" s="42"/>
-      <c r="P70" s="58"/>
+      <c r="P70" s="145"/>
     </row>
     <row r="71" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="47"/>
       <c r="H71" s="42"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
       <c r="O71" s="42"/>
-      <c r="P71" s="58"/>
+      <c r="P71" s="145"/>
     </row>
     <row r="72" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="47" t="s">
         <v>115</v>
       </c>
@@ -5344,20 +5344,20 @@
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="42"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
       <c r="O72" s="42"/>
-      <c r="P72" s="58"/>
+      <c r="P72" s="145"/>
     </row>
     <row r="73" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
       <c r="E73" s="47" t="s">
         <v>149</v>
       </c>
@@ -5366,20 +5366,20 @@
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="42"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
       <c r="O73" s="42"/>
-      <c r="P73" s="58"/>
+      <c r="P73" s="145"/>
     </row>
     <row r="74" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="47" t="s">
         <v>119</v>
       </c>
@@ -5388,20 +5388,20 @@
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="42"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
       <c r="O74" s="42"/>
-      <c r="P74" s="58"/>
+      <c r="P74" s="145"/>
     </row>
     <row r="75" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96" t="s">
+      <c r="A75" s="89"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70" t="s">
         <v>121</v>
       </c>
       <c r="E75" s="47" t="s">
@@ -5410,60 +5410,60 @@
       <c r="F75" s="47"/>
       <c r="G75" s="47"/>
       <c r="H75" s="42"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
       <c r="O75" s="42"/>
-      <c r="P75" s="58"/>
+      <c r="P75" s="145"/>
     </row>
     <row r="76" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
       <c r="E76" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F76" s="47"/>
       <c r="G76" s="47"/>
       <c r="H76" s="42"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
       <c r="O76" s="42"/>
-      <c r="P76" s="58"/>
+      <c r="P76" s="145"/>
     </row>
     <row r="77" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
       <c r="E77" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F77" s="47"/>
       <c r="G77" s="47"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
       <c r="O77" s="42"/>
-      <c r="P77" s="58"/>
+      <c r="P77" s="145"/>
     </row>
     <row r="78" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96" t="s">
+      <c r="A78" s="89"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70" t="s">
         <v>125</v>
       </c>
       <c r="E78" s="47" t="s">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="G78" s="47"/>
       <c r="H78" s="42"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
       <c r="O78" s="42"/>
-      <c r="P78" s="58"/>
+      <c r="P78" s="145"/>
     </row>
     <row r="79" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="47" t="s">
         <v>128</v>
       </c>
@@ -5496,19 +5496,19 @@
       </c>
       <c r="G79" s="47"/>
       <c r="H79" s="42"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="72"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
       <c r="O79" s="42"/>
-      <c r="P79" s="58"/>
+      <c r="P79" s="145"/>
     </row>
     <row r="80" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A80" s="84"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="96" t="s">
+      <c r="A80" s="89"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70" t="s">
         <v>150</v>
       </c>
       <c r="D80" s="47" t="s">
@@ -5520,28 +5520,28 @@
       </c>
       <c r="G80" s="47"/>
       <c r="H80" s="42"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70">
+      <c r="I80" s="73"/>
+      <c r="J80" s="73">
         <v>3</v>
       </c>
-      <c r="K80" s="70">
+      <c r="K80" s="73">
         <v>5</v>
       </c>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70">
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73">
         <v>6</v>
       </c>
       <c r="O80" s="42"/>
-      <c r="P80" s="59" t="s">
-        <v>440</v>
+      <c r="P80" s="146" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A81" s="84"/>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96" t="s">
+      <c r="A81" s="89"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70" t="s">
         <v>151</v>
       </c>
       <c r="E81" s="47" t="s">
@@ -5552,20 +5552,20 @@
       </c>
       <c r="G81" s="47"/>
       <c r="H81" s="42"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
       <c r="O81" s="42"/>
-      <c r="P81" s="60"/>
+      <c r="P81" s="147"/>
     </row>
     <row r="82" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="84"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
       <c r="E82" s="47" t="s">
         <v>94</v>
       </c>
@@ -5576,20 +5576,20 @@
         <v>141</v>
       </c>
       <c r="H82" s="42"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
       <c r="O82" s="42"/>
-      <c r="P82" s="60"/>
+      <c r="P82" s="147"/>
     </row>
     <row r="83" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
       <c r="E83" s="47" t="s">
         <v>142</v>
       </c>
@@ -5598,20 +5598,20 @@
       </c>
       <c r="G83" s="47"/>
       <c r="H83" s="42"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
       <c r="O83" s="42"/>
-      <c r="P83" s="60"/>
+      <c r="P83" s="147"/>
     </row>
     <row r="84" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96" t="s">
+      <c r="A84" s="89"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70" t="s">
         <v>152</v>
       </c>
       <c r="E84" s="47" t="s">
@@ -5622,20 +5622,20 @@
       </c>
       <c r="G84" s="47"/>
       <c r="H84" s="42"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
       <c r="O84" s="42"/>
-      <c r="P84" s="60"/>
+      <c r="P84" s="147"/>
     </row>
     <row r="85" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A85" s="84"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
       <c r="E85" s="47" t="s">
         <v>94</v>
       </c>
@@ -5644,20 +5644,20 @@
       </c>
       <c r="G85" s="47"/>
       <c r="H85" s="42"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
       <c r="O85" s="42"/>
-      <c r="P85" s="60"/>
+      <c r="P85" s="147"/>
     </row>
     <row r="86" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
       <c r="E86" s="47" t="s">
         <v>142</v>
       </c>
@@ -5666,19 +5666,19 @@
       </c>
       <c r="G86" s="47"/>
       <c r="H86" s="42"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
       <c r="O86" s="42"/>
-      <c r="P86" s="60"/>
+      <c r="P86" s="147"/>
     </row>
     <row r="87" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="47" t="s">
         <v>153</v>
       </c>
@@ -5688,19 +5688,19 @@
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="42"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
       <c r="O87" s="42"/>
-      <c r="P87" s="60"/>
+      <c r="P87" s="147"/>
     </row>
     <row r="88" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="96"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="47" t="s">
         <v>102</v>
       </c>
@@ -5710,20 +5710,20 @@
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="42"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
       <c r="O88" s="42"/>
-      <c r="P88" s="60"/>
+      <c r="P88" s="147"/>
     </row>
     <row r="89" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="96" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70" t="s">
         <v>104</v>
       </c>
       <c r="E89" s="47" t="s">
@@ -5734,20 +5734,20 @@
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="42"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
       <c r="O89" s="42"/>
-      <c r="P89" s="60"/>
+      <c r="P89" s="147"/>
     </row>
     <row r="90" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="70"/>
       <c r="E90" s="47" t="s">
         <v>107</v>
       </c>
@@ -5756,20 +5756,20 @@
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="42"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="60"/>
+      <c r="P90" s="147"/>
     </row>
     <row r="91" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70" t="s">
         <v>109</v>
       </c>
       <c r="E91" s="47" t="s">
@@ -5780,20 +5780,20 @@
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="42"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
       <c r="O91" s="42"/>
-      <c r="P91" s="60"/>
+      <c r="P91" s="147"/>
     </row>
     <row r="92" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="96"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="96"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
       <c r="E92" s="47" t="s">
         <v>112</v>
       </c>
@@ -5802,40 +5802,40 @@
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="42"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="74"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
       <c r="O92" s="42"/>
-      <c r="P92" s="60"/>
+      <c r="P92" s="147"/>
     </row>
     <row r="93" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
+      <c r="A93" s="89"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
       <c r="E93" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47"/>
       <c r="H93" s="42"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="74"/>
+      <c r="L93" s="74"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
       <c r="O93" s="42"/>
-      <c r="P93" s="60"/>
+      <c r="P93" s="147"/>
     </row>
     <row r="94" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
+      <c r="A94" s="89"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="70"/>
       <c r="E94" s="47" t="s">
         <v>115</v>
       </c>
@@ -5844,20 +5844,20 @@
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="42"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="74"/>
+      <c r="L94" s="74"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
       <c r="O94" s="42"/>
-      <c r="P94" s="60"/>
+      <c r="P94" s="147"/>
     </row>
     <row r="95" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="84"/>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
+      <c r="A95" s="89"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
       <c r="E95" s="47" t="s">
         <v>117</v>
       </c>
@@ -5866,20 +5866,20 @@
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="42"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="74"/>
+      <c r="K95" s="74"/>
+      <c r="L95" s="74"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
       <c r="O95" s="42"/>
-      <c r="P95" s="60"/>
+      <c r="P95" s="147"/>
     </row>
     <row r="96" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="96"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="70"/>
       <c r="E96" s="47" t="s">
         <v>119</v>
       </c>
@@ -5888,20 +5888,20 @@
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="42"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
       <c r="O96" s="42"/>
-      <c r="P96" s="60"/>
+      <c r="P96" s="147"/>
     </row>
     <row r="97" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="96" t="s">
+      <c r="A97" s="89"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="47" t="s">
@@ -5910,60 +5910,60 @@
       <c r="F97" s="47"/>
       <c r="G97" s="47"/>
       <c r="H97" s="42"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="74"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
       <c r="O97" s="42"/>
-      <c r="P97" s="60"/>
+      <c r="P97" s="147"/>
     </row>
     <row r="98" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="96"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="96"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
       <c r="E98" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47"/>
       <c r="H98" s="42"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="71"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
       <c r="O98" s="42"/>
-      <c r="P98" s="60"/>
+      <c r="P98" s="147"/>
     </row>
     <row r="99" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
+      <c r="A99" s="89"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
       <c r="E99" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F99" s="47"/>
       <c r="G99" s="47"/>
       <c r="H99" s="42"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
       <c r="O99" s="42"/>
-      <c r="P99" s="60"/>
+      <c r="P99" s="147"/>
     </row>
     <row r="100" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96" t="s">
+      <c r="A100" s="89"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70" t="s">
         <v>125</v>
       </c>
       <c r="E100" s="47" t="s">
@@ -5974,20 +5974,20 @@
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="42"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
       <c r="O100" s="42"/>
-      <c r="P100" s="60"/>
+      <c r="P100" s="147"/>
     </row>
     <row r="101" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A101" s="84"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
+      <c r="A101" s="89"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="47" t="s">
         <v>128</v>
       </c>
@@ -5996,21 +5996,21 @@
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="42"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="75"/>
+      <c r="N101" s="75"/>
       <c r="O101" s="42"/>
-      <c r="P101" s="61"/>
+      <c r="P101" s="148"/>
     </row>
     <row r="102" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
-      <c r="B102" s="95" t="s">
+      <c r="A102" s="89"/>
+      <c r="B102" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="95" t="s">
+      <c r="C102" s="94" t="s">
         <v>158</v>
       </c>
       <c r="D102" s="47" t="s">
@@ -6022,27 +6022,27 @@
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="42"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70">
+      <c r="I102" s="73"/>
+      <c r="J102" s="73">
         <v>4</v>
       </c>
-      <c r="K102" s="70">
+      <c r="K102" s="73">
         <v>8</v>
       </c>
-      <c r="L102" s="70"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="70">
+      <c r="L102" s="73"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="73">
         <v>2</v>
       </c>
       <c r="O102" s="42"/>
-      <c r="P102" s="59" t="s">
-        <v>442</v>
+      <c r="P102" s="146" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="84"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="92"/>
+      <c r="A103" s="89"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="96"/>
       <c r="D103" s="47" t="s">
         <v>159</v>
       </c>
@@ -6052,19 +6052,19 @@
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="42"/>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="71"/>
-      <c r="N103" s="71"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="74"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
       <c r="O103" s="42"/>
-      <c r="P103" s="60"/>
+      <c r="P103" s="147"/>
     </row>
     <row r="104" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="84"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="82" t="s">
+      <c r="A104" s="89"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="97" t="s">
         <v>161</v>
       </c>
       <c r="D104" s="34" t="s">
@@ -6074,19 +6074,19 @@
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
       <c r="H104" s="42"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="71"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="74"/>
+      <c r="L104" s="74"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
       <c r="O104" s="42"/>
-      <c r="P104" s="60"/>
+      <c r="P104" s="147"/>
     </row>
     <row r="105" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="84"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="82"/>
+      <c r="A105" s="89"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="97"/>
       <c r="D105" s="34" t="s">
         <v>163</v>
       </c>
@@ -6094,19 +6094,19 @@
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="42"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
       <c r="O105" s="42"/>
-      <c r="P105" s="60"/>
+      <c r="P105" s="147"/>
     </row>
     <row r="106" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="82" t="s">
+      <c r="A106" s="89"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="97" t="s">
         <v>164</v>
       </c>
       <c r="D106" s="34" t="s">
@@ -6116,19 +6116,19 @@
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="42"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
       <c r="O106" s="42"/>
-      <c r="P106" s="60"/>
+      <c r="P106" s="147"/>
     </row>
     <row r="107" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A107" s="84"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="82"/>
+      <c r="A107" s="89"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="97"/>
       <c r="D107" s="34" t="s">
         <v>165</v>
       </c>
@@ -6138,20 +6138,20 @@
       </c>
       <c r="G107" s="34"/>
       <c r="H107" s="42"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
-      <c r="N107" s="71"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
       <c r="O107" s="42"/>
-      <c r="P107" s="60"/>
+      <c r="P107" s="147"/>
     </row>
     <row r="108" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="84"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82" t="s">
+      <c r="A108" s="89"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="97" t="s">
         <v>167</v>
       </c>
       <c r="E108" s="34" t="s">
@@ -6162,20 +6162,20 @@
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="42"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="71"/>
-      <c r="L108" s="71"/>
-      <c r="M108" s="71"/>
-      <c r="N108" s="71"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
       <c r="O108" s="42"/>
-      <c r="P108" s="60"/>
+      <c r="P108" s="147"/>
     </row>
     <row r="109" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
+      <c r="A109" s="89"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="97"/>
       <c r="E109" s="34" t="s">
         <v>170</v>
       </c>
@@ -6184,20 +6184,20 @@
       </c>
       <c r="G109" s="34"/>
       <c r="H109" s="42"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="71"/>
-      <c r="N109" s="71"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
       <c r="O109" s="42"/>
-      <c r="P109" s="60"/>
+      <c r="P109" s="147"/>
     </row>
     <row r="110" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
+      <c r="A110" s="89"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="97"/>
       <c r="E110" s="34" t="s">
         <v>172</v>
       </c>
@@ -6206,20 +6206,20 @@
       </c>
       <c r="G110" s="34"/>
       <c r="H110" s="42"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="71"/>
-      <c r="N110" s="71"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+      <c r="K110" s="74"/>
+      <c r="L110" s="74"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
       <c r="O110" s="42"/>
-      <c r="P110" s="60"/>
+      <c r="P110" s="147"/>
     </row>
     <row r="111" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="82"/>
+      <c r="A111" s="89"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="97"/>
       <c r="E111" s="34" t="s">
         <v>174</v>
       </c>
@@ -6228,20 +6228,20 @@
       </c>
       <c r="G111" s="34"/>
       <c r="H111" s="42"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="71"/>
-      <c r="N111" s="71"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
       <c r="O111" s="42"/>
-      <c r="P111" s="60"/>
+      <c r="P111" s="147"/>
     </row>
     <row r="112" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
+      <c r="A112" s="89"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="97"/>
       <c r="E112" s="34" t="s">
         <v>176</v>
       </c>
@@ -6250,20 +6250,20 @@
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="42"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="71"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
       <c r="O112" s="42"/>
-      <c r="P112" s="60"/>
+      <c r="P112" s="147"/>
     </row>
     <row r="113" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="84"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="82"/>
+      <c r="A113" s="89"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="97"/>
+      <c r="D113" s="97"/>
       <c r="E113" s="34" t="s">
         <v>178</v>
       </c>
@@ -6272,20 +6272,20 @@
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="42"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="71"/>
-      <c r="L113" s="71"/>
-      <c r="M113" s="71"/>
-      <c r="N113" s="71"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="74"/>
+      <c r="K113" s="74"/>
+      <c r="L113" s="74"/>
+      <c r="M113" s="74"/>
+      <c r="N113" s="74"/>
       <c r="O113" s="42"/>
-      <c r="P113" s="60"/>
+      <c r="P113" s="147"/>
     </row>
     <row r="114" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A114" s="84"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
+      <c r="A114" s="89"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="97"/>
+      <c r="D114" s="97"/>
       <c r="E114" s="34" t="s">
         <v>180</v>
       </c>
@@ -6294,40 +6294,40 @@
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="42"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
       <c r="O114" s="42"/>
-      <c r="P114" s="60"/>
+      <c r="P114" s="147"/>
     </row>
     <row r="115" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A115" s="84"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="82"/>
-      <c r="D115" s="82"/>
+      <c r="A115" s="89"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="97"/>
+      <c r="D115" s="97"/>
       <c r="E115" s="34" t="s">
         <v>182</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
       <c r="H115" s="42"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="71"/>
-      <c r="M115" s="71"/>
-      <c r="N115" s="71"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
       <c r="O115" s="42"/>
-      <c r="P115" s="60"/>
+      <c r="P115" s="147"/>
     </row>
     <row r="116" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A116" s="84"/>
-      <c r="B116" s="91"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
+      <c r="A116" s="89"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="97"/>
+      <c r="D116" s="97"/>
       <c r="E116" s="34" t="s">
         <v>183</v>
       </c>
@@ -6336,19 +6336,19 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="42"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="71"/>
-      <c r="L116" s="71"/>
-      <c r="M116" s="71"/>
-      <c r="N116" s="71"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
       <c r="O116" s="42"/>
-      <c r="P116" s="60"/>
+      <c r="P116" s="147"/>
     </row>
     <row r="117" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="84"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="82"/>
+      <c r="A117" s="89"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="97"/>
       <c r="D117" s="34" t="s">
         <v>185</v>
       </c>
@@ -6358,19 +6358,19 @@
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="21"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
-      <c r="L117" s="71"/>
-      <c r="M117" s="71"/>
-      <c r="N117" s="71"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
       <c r="O117" s="14"/>
-      <c r="P117" s="60"/>
+      <c r="P117" s="147"/>
     </row>
     <row r="118" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="84"/>
-      <c r="B118" s="91"/>
-      <c r="C118" s="82"/>
+      <c r="A118" s="89"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="97"/>
       <c r="D118" s="34" t="s">
         <v>187</v>
       </c>
@@ -6380,19 +6380,19 @@
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="71"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="71"/>
-      <c r="N118" s="71"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
       <c r="O118" s="14"/>
-      <c r="P118" s="60"/>
+      <c r="P118" s="147"/>
     </row>
     <row r="119" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="84"/>
-      <c r="B119" s="91"/>
-      <c r="C119" s="82" t="s">
+      <c r="A119" s="89"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="97" t="s">
         <v>189</v>
       </c>
       <c r="D119" s="34" t="s">
@@ -6404,19 +6404,19 @@
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="22"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
+      <c r="I119" s="74"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
       <c r="O119" s="14"/>
-      <c r="P119" s="60"/>
+      <c r="P119" s="147"/>
     </row>
     <row r="120" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="84"/>
-      <c r="B120" s="91"/>
-      <c r="C120" s="82"/>
+      <c r="A120" s="89"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="97"/>
       <c r="D120" s="34" t="s">
         <v>192</v>
       </c>
@@ -6424,19 +6424,19 @@
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
       <c r="H120" s="22"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="71"/>
-      <c r="K120" s="71"/>
-      <c r="L120" s="71"/>
-      <c r="M120" s="71"/>
-      <c r="N120" s="71"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
       <c r="O120" s="14"/>
-      <c r="P120" s="60"/>
+      <c r="P120" s="147"/>
     </row>
     <row r="121" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="84"/>
-      <c r="B121" s="91"/>
-      <c r="C121" s="82"/>
+      <c r="A121" s="89"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="97"/>
       <c r="D121" s="34" t="s">
         <v>193</v>
       </c>
@@ -6444,19 +6444,19 @@
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
       <c r="H121" s="22"/>
-      <c r="I121" s="71"/>
-      <c r="J121" s="71"/>
-      <c r="K121" s="71"/>
-      <c r="L121" s="71"/>
-      <c r="M121" s="71"/>
-      <c r="N121" s="71"/>
+      <c r="I121" s="74"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="74"/>
+      <c r="M121" s="74"/>
+      <c r="N121" s="74"/>
       <c r="O121" s="14"/>
-      <c r="P121" s="60"/>
+      <c r="P121" s="147"/>
     </row>
     <row r="122" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="84"/>
-      <c r="B122" s="92"/>
-      <c r="C122" s="82"/>
+      <c r="A122" s="89"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="97"/>
       <c r="D122" s="34" t="s">
         <v>194</v>
       </c>
@@ -6466,21 +6466,21 @@
       </c>
       <c r="G122" s="34"/>
       <c r="H122" s="22"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="72"/>
-      <c r="M122" s="72"/>
-      <c r="N122" s="72"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
+      <c r="K122" s="75"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="75"/>
+      <c r="N122" s="75"/>
       <c r="O122" s="14"/>
-      <c r="P122" s="61"/>
+      <c r="P122" s="148"/>
     </row>
     <row r="123" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="84"/>
-      <c r="B123" s="96" t="s">
+      <c r="A123" s="89"/>
+      <c r="B123" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="96" t="s">
+      <c r="C123" s="70" t="s">
         <v>197</v>
       </c>
       <c r="D123" s="47" t="s">
@@ -6488,31 +6488,31 @@
       </c>
       <c r="E123" s="47"/>
       <c r="F123" s="47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G123" s="47"/>
       <c r="H123" s="22"/>
-      <c r="I123" s="64"/>
-      <c r="J123" s="64">
+      <c r="I123" s="124"/>
+      <c r="J123" s="124">
         <v>1</v>
       </c>
-      <c r="K123" s="64">
+      <c r="K123" s="124">
         <v>2</v>
       </c>
-      <c r="L123" s="64"/>
-      <c r="M123" s="64"/>
-      <c r="N123" s="64">
+      <c r="L123" s="124"/>
+      <c r="M123" s="124"/>
+      <c r="N123" s="124">
         <v>4</v>
       </c>
       <c r="O123" s="14"/>
-      <c r="P123" s="63" t="s">
-        <v>444</v>
+      <c r="P123" s="153" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="84"/>
-      <c r="B124" s="96"/>
-      <c r="C124" s="96"/>
+      <c r="A124" s="89"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="47" t="s">
         <v>199</v>
       </c>
@@ -6524,19 +6524,19 @@
         <v>201</v>
       </c>
       <c r="H124" s="22"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
-      <c r="L124" s="66"/>
-      <c r="M124" s="66"/>
-      <c r="N124" s="66"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="125"/>
+      <c r="K124" s="125"/>
+      <c r="L124" s="125"/>
+      <c r="M124" s="125"/>
+      <c r="N124" s="125"/>
       <c r="O124" s="14"/>
-      <c r="P124" s="58"/>
+      <c r="P124" s="145"/>
     </row>
     <row r="125" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="84"/>
-      <c r="B125" s="96"/>
-      <c r="C125" s="96"/>
+      <c r="A125" s="89"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="47" t="s">
         <v>202</v>
       </c>
@@ -6548,19 +6548,19 @@
         <v>204</v>
       </c>
       <c r="H125" s="22"/>
-      <c r="I125" s="66"/>
-      <c r="J125" s="66"/>
-      <c r="K125" s="66"/>
-      <c r="L125" s="66"/>
-      <c r="M125" s="66"/>
-      <c r="N125" s="66"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="125"/>
+      <c r="K125" s="125"/>
+      <c r="L125" s="125"/>
+      <c r="M125" s="125"/>
+      <c r="N125" s="125"/>
       <c r="O125" s="14"/>
-      <c r="P125" s="58"/>
+      <c r="P125" s="145"/>
     </row>
     <row r="126" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="84"/>
-      <c r="B126" s="96"/>
-      <c r="C126" s="96"/>
+      <c r="A126" s="89"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
       <c r="D126" s="47" t="s">
         <v>205</v>
       </c>
@@ -6570,18 +6570,18 @@
       </c>
       <c r="G126" s="47"/>
       <c r="H126" s="22"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="66"/>
-      <c r="L126" s="66"/>
-      <c r="M126" s="66"/>
-      <c r="N126" s="66"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="125"/>
+      <c r="K126" s="125"/>
+      <c r="L126" s="125"/>
+      <c r="M126" s="125"/>
+      <c r="N126" s="125"/>
       <c r="O126" s="14"/>
-      <c r="P126" s="58"/>
+      <c r="P126" s="145"/>
     </row>
     <row r="127" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="84"/>
-      <c r="B127" s="96"/>
+      <c r="A127" s="89"/>
+      <c r="B127" s="70"/>
       <c r="C127" s="47" t="s">
         <v>207</v>
       </c>
@@ -6592,18 +6592,18 @@
       </c>
       <c r="G127" s="47"/>
       <c r="H127" s="22"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
-      <c r="L127" s="66"/>
-      <c r="M127" s="66"/>
-      <c r="N127" s="66"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="125"/>
+      <c r="L127" s="125"/>
+      <c r="M127" s="125"/>
+      <c r="N127" s="125"/>
       <c r="O127" s="14"/>
-      <c r="P127" s="58"/>
+      <c r="P127" s="145"/>
     </row>
     <row r="128" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="84"/>
-      <c r="B128" s="96"/>
+      <c r="A128" s="89"/>
+      <c r="B128" s="70"/>
       <c r="C128" s="47" t="s">
         <v>209</v>
       </c>
@@ -6612,17 +6612,17 @@
       <c r="F128" s="47"/>
       <c r="G128" s="47"/>
       <c r="H128" s="22"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="65"/>
-      <c r="K128" s="65"/>
-      <c r="L128" s="65"/>
-      <c r="M128" s="65"/>
-      <c r="N128" s="65"/>
+      <c r="I128" s="126"/>
+      <c r="J128" s="126"/>
+      <c r="K128" s="126"/>
+      <c r="L128" s="126"/>
+      <c r="M128" s="126"/>
+      <c r="N128" s="126"/>
       <c r="O128" s="14"/>
-      <c r="P128" s="58"/>
+      <c r="P128" s="145"/>
     </row>
     <row r="129" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="84"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="47" t="s">
         <v>210</v>
       </c>
@@ -6652,11 +6652,11 @@
       <c r="P129" s="48"/>
     </row>
     <row r="130" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="84"/>
-      <c r="B130" s="82" t="s">
+      <c r="A130" s="89"/>
+      <c r="B130" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="82" t="s">
+      <c r="C130" s="97" t="s">
         <v>214</v>
       </c>
       <c r="D130" s="34" t="s">
@@ -6668,27 +6668,27 @@
       </c>
       <c r="G130" s="34"/>
       <c r="H130" s="22"/>
-      <c r="I130" s="64"/>
-      <c r="J130" s="64">
+      <c r="I130" s="124"/>
+      <c r="J130" s="124">
         <v>5</v>
       </c>
-      <c r="K130" s="64">
+      <c r="K130" s="124">
         <v>14</v>
       </c>
-      <c r="L130" s="64"/>
-      <c r="M130" s="64"/>
-      <c r="N130" s="64">
+      <c r="L130" s="124"/>
+      <c r="M130" s="124"/>
+      <c r="N130" s="124">
         <v>15</v>
       </c>
       <c r="O130" s="14"/>
-      <c r="P130" s="62" t="s">
-        <v>450</v>
+      <c r="P130" s="152" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="84"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
+      <c r="A131" s="89"/>
+      <c r="B131" s="97"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="34" t="s">
         <v>53</v>
       </c>
@@ -6698,20 +6698,20 @@
       </c>
       <c r="G131" s="34"/>
       <c r="H131" s="22"/>
-      <c r="I131" s="66"/>
-      <c r="J131" s="66"/>
-      <c r="K131" s="66"/>
-      <c r="L131" s="66"/>
-      <c r="M131" s="66"/>
-      <c r="N131" s="66"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="125"/>
+      <c r="L131" s="125"/>
+      <c r="M131" s="125"/>
+      <c r="N131" s="125"/>
       <c r="O131" s="14"/>
-      <c r="P131" s="58"/>
+      <c r="P131" s="145"/>
     </row>
     <row r="132" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="84"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="89" t="s">
+      <c r="A132" s="89"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="98" t="s">
         <v>218</v>
       </c>
       <c r="E132" s="34" t="s">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="G132" s="34"/>
       <c r="H132" s="22"/>
-      <c r="I132" s="66"/>
-      <c r="J132" s="66"/>
-      <c r="K132" s="66"/>
-      <c r="L132" s="66"/>
-      <c r="M132" s="66"/>
-      <c r="N132" s="66"/>
+      <c r="I132" s="125"/>
+      <c r="J132" s="125"/>
+      <c r="K132" s="125"/>
+      <c r="L132" s="125"/>
+      <c r="M132" s="125"/>
+      <c r="N132" s="125"/>
       <c r="O132" s="14"/>
-      <c r="P132" s="58"/>
+      <c r="P132" s="145"/>
     </row>
     <row r="133" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="84"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="93"/>
+      <c r="A133" s="89"/>
+      <c r="B133" s="97"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="99"/>
       <c r="E133" s="34" t="s">
         <v>221</v>
       </c>
@@ -6744,20 +6744,20 @@
       </c>
       <c r="G133" s="34"/>
       <c r="H133" s="22"/>
-      <c r="I133" s="66"/>
-      <c r="J133" s="66"/>
-      <c r="K133" s="66"/>
-      <c r="L133" s="66"/>
-      <c r="M133" s="66"/>
-      <c r="N133" s="66"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
+      <c r="N133" s="125"/>
       <c r="O133" s="14"/>
-      <c r="P133" s="58"/>
+      <c r="P133" s="145"/>
     </row>
     <row r="134" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="84"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="93"/>
+      <c r="A134" s="89"/>
+      <c r="B134" s="97"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="99"/>
       <c r="E134" s="34" t="s">
         <v>223</v>
       </c>
@@ -6766,20 +6766,20 @@
       </c>
       <c r="G134" s="34"/>
       <c r="H134" s="22"/>
-      <c r="I134" s="66"/>
-      <c r="J134" s="66"/>
-      <c r="K134" s="66"/>
-      <c r="L134" s="66"/>
-      <c r="M134" s="66"/>
-      <c r="N134" s="66"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="125"/>
+      <c r="K134" s="125"/>
+      <c r="L134" s="125"/>
+      <c r="M134" s="125"/>
+      <c r="N134" s="125"/>
       <c r="O134" s="14"/>
-      <c r="P134" s="58"/>
+      <c r="P134" s="145"/>
     </row>
     <row r="135" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="84"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="93"/>
+      <c r="A135" s="89"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="97"/>
+      <c r="D135" s="99"/>
       <c r="E135" s="34" t="s">
         <v>225</v>
       </c>
@@ -6788,20 +6788,20 @@
       </c>
       <c r="G135" s="34"/>
       <c r="H135" s="22"/>
-      <c r="I135" s="66"/>
-      <c r="J135" s="66"/>
-      <c r="K135" s="66"/>
-      <c r="L135" s="66"/>
-      <c r="M135" s="66"/>
-      <c r="N135" s="66"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="125"/>
+      <c r="K135" s="125"/>
+      <c r="L135" s="125"/>
+      <c r="M135" s="125"/>
+      <c r="N135" s="125"/>
       <c r="O135" s="14"/>
-      <c r="P135" s="58"/>
+      <c r="P135" s="145"/>
     </row>
     <row r="136" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="84"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="91"/>
+      <c r="A136" s="89"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="93"/>
       <c r="E136" s="34" t="s">
         <v>227</v>
       </c>
@@ -6810,20 +6810,20 @@
       </c>
       <c r="G136" s="34"/>
       <c r="H136" s="22"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
-      <c r="M136" s="66"/>
-      <c r="N136" s="66"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="125"/>
+      <c r="K136" s="125"/>
+      <c r="L136" s="125"/>
+      <c r="M136" s="125"/>
+      <c r="N136" s="125"/>
       <c r="O136" s="14"/>
-      <c r="P136" s="58"/>
+      <c r="P136" s="145"/>
     </row>
     <row r="137" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="84"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="91"/>
+      <c r="A137" s="89"/>
+      <c r="B137" s="97"/>
+      <c r="C137" s="97"/>
+      <c r="D137" s="93"/>
       <c r="E137" s="34" t="s">
         <v>51</v>
       </c>
@@ -6832,21 +6832,21 @@
       </c>
       <c r="G137" s="34"/>
       <c r="H137" s="22"/>
-      <c r="I137" s="66"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="66"/>
-      <c r="M137" s="66"/>
-      <c r="N137" s="66"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="125"/>
+      <c r="L137" s="125"/>
+      <c r="M137" s="125"/>
+      <c r="N137" s="125"/>
       <c r="O137" s="14"/>
-      <c r="P137" s="58"/>
+      <c r="P137" s="145"/>
     </row>
     <row r="138" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="84"/>
-      <c r="B138" s="82"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="82" t="s">
+      <c r="A138" s="89"/>
+      <c r="B138" s="97"/>
+      <c r="C138" s="97"/>
+      <c r="D138" s="93"/>
+      <c r="E138" s="97" t="s">
         <v>230</v>
       </c>
       <c r="F138" s="34" t="s">
@@ -6854,60 +6854,60 @@
       </c>
       <c r="G138" s="34"/>
       <c r="H138" s="22"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="66"/>
-      <c r="L138" s="66"/>
-      <c r="M138" s="66"/>
-      <c r="N138" s="66"/>
+      <c r="I138" s="125"/>
+      <c r="J138" s="125"/>
+      <c r="K138" s="125"/>
+      <c r="L138" s="125"/>
+      <c r="M138" s="125"/>
+      <c r="N138" s="125"/>
       <c r="O138" s="14"/>
-      <c r="P138" s="58"/>
+      <c r="P138" s="145"/>
     </row>
     <row r="139" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="84"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="82"/>
+      <c r="A139" s="89"/>
+      <c r="B139" s="97"/>
+      <c r="C139" s="97"/>
+      <c r="D139" s="93"/>
+      <c r="E139" s="97"/>
       <c r="F139" s="34" t="s">
         <v>232</v>
       </c>
       <c r="G139" s="34"/>
       <c r="H139" s="22"/>
-      <c r="I139" s="66"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="66"/>
-      <c r="L139" s="66"/>
-      <c r="M139" s="66"/>
-      <c r="N139" s="66"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="125"/>
+      <c r="K139" s="125"/>
+      <c r="L139" s="125"/>
+      <c r="M139" s="125"/>
+      <c r="N139" s="125"/>
       <c r="O139" s="14"/>
-      <c r="P139" s="58"/>
+      <c r="P139" s="145"/>
     </row>
     <row r="140" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="84"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="82"/>
+      <c r="A140" s="89"/>
+      <c r="B140" s="97"/>
+      <c r="C140" s="97"/>
+      <c r="D140" s="93"/>
+      <c r="E140" s="97"/>
       <c r="F140" s="34" t="s">
         <v>233</v>
       </c>
       <c r="G140" s="34"/>
       <c r="H140" s="22"/>
-      <c r="I140" s="66"/>
-      <c r="J140" s="66"/>
-      <c r="K140" s="66"/>
-      <c r="L140" s="66"/>
-      <c r="M140" s="66"/>
-      <c r="N140" s="66"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="125"/>
+      <c r="K140" s="125"/>
+      <c r="L140" s="125"/>
+      <c r="M140" s="125"/>
+      <c r="N140" s="125"/>
       <c r="O140" s="14"/>
-      <c r="P140" s="58"/>
+      <c r="P140" s="145"/>
     </row>
     <row r="141" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="84"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="91"/>
+      <c r="A141" s="89"/>
+      <c r="B141" s="97"/>
+      <c r="C141" s="97"/>
+      <c r="D141" s="93"/>
       <c r="E141" s="35" t="s">
         <v>234</v>
       </c>
@@ -6916,21 +6916,21 @@
       </c>
       <c r="G141" s="34"/>
       <c r="H141" s="22"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="66"/>
-      <c r="M141" s="66"/>
-      <c r="N141" s="66"/>
+      <c r="I141" s="125"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="125"/>
+      <c r="L141" s="125"/>
+      <c r="M141" s="125"/>
+      <c r="N141" s="125"/>
       <c r="O141" s="14"/>
-      <c r="P141" s="58"/>
+      <c r="P141" s="145"/>
     </row>
     <row r="142" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="84"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="82" t="s">
+      <c r="A142" s="89"/>
+      <c r="B142" s="97"/>
+      <c r="C142" s="97"/>
+      <c r="D142" s="93"/>
+      <c r="E142" s="97" t="s">
         <v>235</v>
       </c>
       <c r="F142" s="34" t="s">
@@ -6938,101 +6938,101 @@
       </c>
       <c r="G142" s="34"/>
       <c r="H142" s="22"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="66"/>
-      <c r="M142" s="66"/>
-      <c r="N142" s="66"/>
+      <c r="I142" s="125"/>
+      <c r="J142" s="125"/>
+      <c r="K142" s="125"/>
+      <c r="L142" s="125"/>
+      <c r="M142" s="125"/>
+      <c r="N142" s="125"/>
       <c r="O142" s="14"/>
-      <c r="P142" s="58"/>
+      <c r="P142" s="145"/>
     </row>
     <row r="143" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="84"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="82"/>
+      <c r="A143" s="89"/>
+      <c r="B143" s="97"/>
+      <c r="C143" s="97"/>
+      <c r="D143" s="93"/>
+      <c r="E143" s="97"/>
       <c r="F143" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G143" s="34"/>
       <c r="H143" s="22"/>
-      <c r="I143" s="66"/>
-      <c r="J143" s="66"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="66"/>
-      <c r="M143" s="66"/>
-      <c r="N143" s="66"/>
+      <c r="I143" s="125"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="125"/>
+      <c r="L143" s="125"/>
+      <c r="M143" s="125"/>
+      <c r="N143" s="125"/>
       <c r="O143" s="14"/>
-      <c r="P143" s="58"/>
+      <c r="P143" s="145"/>
     </row>
     <row r="144" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="84"/>
-      <c r="B144" s="82"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="91"/>
-      <c r="E144" s="82"/>
+      <c r="A144" s="89"/>
+      <c r="B144" s="97"/>
+      <c r="C144" s="97"/>
+      <c r="D144" s="93"/>
+      <c r="E144" s="97"/>
       <c r="F144" s="34" t="s">
         <v>238</v>
       </c>
       <c r="G144" s="34"/>
       <c r="H144" s="22"/>
-      <c r="I144" s="66"/>
-      <c r="J144" s="66"/>
-      <c r="K144" s="66"/>
-      <c r="L144" s="66"/>
-      <c r="M144" s="66"/>
-      <c r="N144" s="66"/>
+      <c r="I144" s="125"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="125"/>
+      <c r="L144" s="125"/>
+      <c r="M144" s="125"/>
+      <c r="N144" s="125"/>
       <c r="O144" s="14"/>
-      <c r="P144" s="58"/>
+      <c r="P144" s="145"/>
     </row>
     <row r="145" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="84"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="82"/>
+      <c r="A145" s="89"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="93"/>
+      <c r="E145" s="97"/>
       <c r="F145" s="34" t="s">
         <v>239</v>
       </c>
       <c r="G145" s="34"/>
       <c r="H145" s="22"/>
-      <c r="I145" s="66"/>
-      <c r="J145" s="66"/>
-      <c r="K145" s="66"/>
-      <c r="L145" s="66"/>
-      <c r="M145" s="66"/>
-      <c r="N145" s="66"/>
+      <c r="I145" s="125"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="125"/>
+      <c r="L145" s="125"/>
+      <c r="M145" s="125"/>
+      <c r="N145" s="125"/>
       <c r="O145" s="14"/>
-      <c r="P145" s="58"/>
+      <c r="P145" s="145"/>
     </row>
     <row r="146" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="84"/>
-      <c r="B146" s="82"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="91"/>
-      <c r="E146" s="82"/>
+      <c r="A146" s="89"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="93"/>
+      <c r="E146" s="97"/>
       <c r="F146" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G146" s="34"/>
       <c r="H146" s="22"/>
-      <c r="I146" s="66"/>
-      <c r="J146" s="66"/>
-      <c r="K146" s="66"/>
-      <c r="L146" s="66"/>
-      <c r="M146" s="66"/>
-      <c r="N146" s="66"/>
+      <c r="I146" s="125"/>
+      <c r="J146" s="125"/>
+      <c r="K146" s="125"/>
+      <c r="L146" s="125"/>
+      <c r="M146" s="125"/>
+      <c r="N146" s="125"/>
       <c r="O146" s="14"/>
-      <c r="P146" s="58"/>
+      <c r="P146" s="145"/>
     </row>
     <row r="147" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="84"/>
-      <c r="B147" s="82"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="82" t="s">
+      <c r="A147" s="89"/>
+      <c r="B147" s="97"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="93"/>
+      <c r="E147" s="97" t="s">
         <v>241</v>
       </c>
       <c r="F147" s="34" t="s">
@@ -7040,101 +7040,101 @@
       </c>
       <c r="G147" s="34"/>
       <c r="H147" s="22"/>
-      <c r="I147" s="66"/>
-      <c r="J147" s="66"/>
-      <c r="K147" s="66"/>
-      <c r="L147" s="66"/>
-      <c r="M147" s="66"/>
-      <c r="N147" s="66"/>
+      <c r="I147" s="125"/>
+      <c r="J147" s="125"/>
+      <c r="K147" s="125"/>
+      <c r="L147" s="125"/>
+      <c r="M147" s="125"/>
+      <c r="N147" s="125"/>
       <c r="O147" s="14"/>
-      <c r="P147" s="58"/>
+      <c r="P147" s="145"/>
     </row>
     <row r="148" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="84"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="91"/>
-      <c r="E148" s="82"/>
+      <c r="A148" s="89"/>
+      <c r="B148" s="97"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="93"/>
+      <c r="E148" s="97"/>
       <c r="F148" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G148" s="34"/>
       <c r="H148" s="22"/>
-      <c r="I148" s="66"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="66"/>
-      <c r="L148" s="66"/>
-      <c r="M148" s="66"/>
-      <c r="N148" s="66"/>
+      <c r="I148" s="125"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="125"/>
+      <c r="L148" s="125"/>
+      <c r="M148" s="125"/>
+      <c r="N148" s="125"/>
       <c r="O148" s="14"/>
-      <c r="P148" s="58"/>
+      <c r="P148" s="145"/>
     </row>
     <row r="149" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="84"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="82"/>
+      <c r="A149" s="89"/>
+      <c r="B149" s="97"/>
+      <c r="C149" s="97"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="97"/>
       <c r="F149" s="34" t="s">
         <v>238</v>
       </c>
       <c r="G149" s="34"/>
       <c r="H149" s="22"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="66"/>
-      <c r="L149" s="66"/>
-      <c r="M149" s="66"/>
-      <c r="N149" s="66"/>
+      <c r="I149" s="125"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="125"/>
+      <c r="L149" s="125"/>
+      <c r="M149" s="125"/>
+      <c r="N149" s="125"/>
       <c r="O149" s="14"/>
-      <c r="P149" s="58"/>
+      <c r="P149" s="145"/>
     </row>
     <row r="150" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="84"/>
-      <c r="B150" s="82"/>
-      <c r="C150" s="82"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="82"/>
+      <c r="A150" s="89"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="93"/>
+      <c r="E150" s="97"/>
       <c r="F150" s="34" t="s">
         <v>239</v>
       </c>
       <c r="G150" s="34"/>
       <c r="H150" s="22"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="66"/>
-      <c r="L150" s="66"/>
-      <c r="M150" s="66"/>
-      <c r="N150" s="66"/>
+      <c r="I150" s="125"/>
+      <c r="J150" s="125"/>
+      <c r="K150" s="125"/>
+      <c r="L150" s="125"/>
+      <c r="M150" s="125"/>
+      <c r="N150" s="125"/>
       <c r="O150" s="14"/>
-      <c r="P150" s="58"/>
+      <c r="P150" s="145"/>
     </row>
     <row r="151" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="84"/>
-      <c r="B151" s="82"/>
-      <c r="C151" s="82"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="82"/>
+      <c r="A151" s="89"/>
+      <c r="B151" s="97"/>
+      <c r="C151" s="97"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="97"/>
       <c r="F151" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G151" s="34"/>
       <c r="H151" s="21"/>
-      <c r="I151" s="66"/>
-      <c r="J151" s="66"/>
-      <c r="K151" s="66"/>
-      <c r="L151" s="66"/>
-      <c r="M151" s="66"/>
-      <c r="N151" s="66"/>
+      <c r="I151" s="125"/>
+      <c r="J151" s="125"/>
+      <c r="K151" s="125"/>
+      <c r="L151" s="125"/>
+      <c r="M151" s="125"/>
+      <c r="N151" s="125"/>
       <c r="O151" s="14"/>
-      <c r="P151" s="58"/>
+      <c r="P151" s="145"/>
     </row>
     <row r="152" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="84"/>
-      <c r="B152" s="82"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="82" t="s">
+      <c r="A152" s="89"/>
+      <c r="B152" s="97"/>
+      <c r="C152" s="97"/>
+      <c r="D152" s="93"/>
+      <c r="E152" s="97" t="s">
         <v>242</v>
       </c>
       <c r="F152" s="34" t="s">
@@ -7142,60 +7142,60 @@
       </c>
       <c r="G152" s="34"/>
       <c r="H152" s="22"/>
-      <c r="I152" s="66"/>
-      <c r="J152" s="66"/>
-      <c r="K152" s="66"/>
-      <c r="L152" s="66"/>
-      <c r="M152" s="66"/>
-      <c r="N152" s="66"/>
+      <c r="I152" s="125"/>
+      <c r="J152" s="125"/>
+      <c r="K152" s="125"/>
+      <c r="L152" s="125"/>
+      <c r="M152" s="125"/>
+      <c r="N152" s="125"/>
       <c r="O152" s="14"/>
-      <c r="P152" s="58"/>
+      <c r="P152" s="145"/>
     </row>
     <row r="153" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="84"/>
-      <c r="B153" s="82"/>
-      <c r="C153" s="82"/>
-      <c r="D153" s="91"/>
-      <c r="E153" s="82"/>
+      <c r="A153" s="89"/>
+      <c r="B153" s="97"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="93"/>
+      <c r="E153" s="97"/>
       <c r="F153" s="34" t="s">
         <v>232</v>
       </c>
       <c r="G153" s="34"/>
       <c r="H153" s="22"/>
-      <c r="I153" s="66"/>
-      <c r="J153" s="66"/>
-      <c r="K153" s="66"/>
-      <c r="L153" s="66"/>
-      <c r="M153" s="66"/>
-      <c r="N153" s="66"/>
+      <c r="I153" s="125"/>
+      <c r="J153" s="125"/>
+      <c r="K153" s="125"/>
+      <c r="L153" s="125"/>
+      <c r="M153" s="125"/>
+      <c r="N153" s="125"/>
       <c r="O153" s="14"/>
-      <c r="P153" s="58"/>
+      <c r="P153" s="145"/>
     </row>
     <row r="154" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="84"/>
-      <c r="B154" s="82"/>
-      <c r="C154" s="82"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="82"/>
+      <c r="A154" s="89"/>
+      <c r="B154" s="97"/>
+      <c r="C154" s="97"/>
+      <c r="D154" s="93"/>
+      <c r="E154" s="97"/>
       <c r="F154" s="34" t="s">
         <v>233</v>
       </c>
       <c r="G154" s="34"/>
       <c r="H154" s="22"/>
-      <c r="I154" s="66"/>
-      <c r="J154" s="66"/>
-      <c r="K154" s="66"/>
-      <c r="L154" s="66"/>
-      <c r="M154" s="66"/>
-      <c r="N154" s="66"/>
+      <c r="I154" s="125"/>
+      <c r="J154" s="125"/>
+      <c r="K154" s="125"/>
+      <c r="L154" s="125"/>
+      <c r="M154" s="125"/>
+      <c r="N154" s="125"/>
       <c r="O154" s="14"/>
-      <c r="P154" s="58"/>
+      <c r="P154" s="145"/>
     </row>
     <row r="155" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="84"/>
-      <c r="B155" s="82"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="91"/>
+      <c r="A155" s="89"/>
+      <c r="B155" s="97"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="93"/>
       <c r="E155" s="35" t="s">
         <v>243</v>
       </c>
@@ -7204,21 +7204,21 @@
       </c>
       <c r="G155" s="34"/>
       <c r="H155" s="22"/>
-      <c r="I155" s="66"/>
-      <c r="J155" s="66"/>
-      <c r="K155" s="66"/>
-      <c r="L155" s="66"/>
-      <c r="M155" s="66"/>
-      <c r="N155" s="66"/>
+      <c r="I155" s="125"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="125"/>
+      <c r="L155" s="125"/>
+      <c r="M155" s="125"/>
+      <c r="N155" s="125"/>
       <c r="O155" s="14"/>
-      <c r="P155" s="58"/>
+      <c r="P155" s="145"/>
     </row>
     <row r="156" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="84"/>
-      <c r="B156" s="82"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="82" t="s">
+      <c r="A156" s="89"/>
+      <c r="B156" s="97"/>
+      <c r="C156" s="97"/>
+      <c r="D156" s="93"/>
+      <c r="E156" s="97" t="s">
         <v>244</v>
       </c>
       <c r="F156" s="34" t="s">
@@ -7226,101 +7226,101 @@
       </c>
       <c r="G156" s="34"/>
       <c r="H156" s="22"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="66"/>
-      <c r="K156" s="66"/>
-      <c r="L156" s="66"/>
-      <c r="M156" s="66"/>
-      <c r="N156" s="66"/>
+      <c r="I156" s="125"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="125"/>
+      <c r="L156" s="125"/>
+      <c r="M156" s="125"/>
+      <c r="N156" s="125"/>
       <c r="O156" s="14"/>
-      <c r="P156" s="58"/>
+      <c r="P156" s="145"/>
     </row>
     <row r="157" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="84"/>
-      <c r="B157" s="82"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="82"/>
+      <c r="A157" s="89"/>
+      <c r="B157" s="97"/>
+      <c r="C157" s="97"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="97"/>
       <c r="F157" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G157" s="34"/>
       <c r="H157" s="22"/>
-      <c r="I157" s="66"/>
-      <c r="J157" s="66"/>
-      <c r="K157" s="66"/>
-      <c r="L157" s="66"/>
-      <c r="M157" s="66"/>
-      <c r="N157" s="66"/>
+      <c r="I157" s="125"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="125"/>
+      <c r="L157" s="125"/>
+      <c r="M157" s="125"/>
+      <c r="N157" s="125"/>
       <c r="O157" s="14"/>
-      <c r="P157" s="58"/>
+      <c r="P157" s="145"/>
     </row>
     <row r="158" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="84"/>
-      <c r="B158" s="82"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="82"/>
+      <c r="A158" s="89"/>
+      <c r="B158" s="97"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="93"/>
+      <c r="E158" s="97"/>
       <c r="F158" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G158" s="34"/>
       <c r="H158" s="22"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="66"/>
-      <c r="K158" s="66"/>
-      <c r="L158" s="66"/>
-      <c r="M158" s="66"/>
-      <c r="N158" s="66"/>
+      <c r="I158" s="125"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="125"/>
+      <c r="L158" s="125"/>
+      <c r="M158" s="125"/>
+      <c r="N158" s="125"/>
       <c r="O158" s="14"/>
-      <c r="P158" s="58"/>
+      <c r="P158" s="145"/>
     </row>
     <row r="159" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="84"/>
-      <c r="B159" s="82"/>
-      <c r="C159" s="82"/>
-      <c r="D159" s="91"/>
-      <c r="E159" s="82"/>
+      <c r="A159" s="89"/>
+      <c r="B159" s="97"/>
+      <c r="C159" s="97"/>
+      <c r="D159" s="93"/>
+      <c r="E159" s="97"/>
       <c r="F159" s="34" t="s">
         <v>247</v>
       </c>
       <c r="G159" s="34"/>
       <c r="H159" s="22"/>
-      <c r="I159" s="66"/>
-      <c r="J159" s="66"/>
-      <c r="K159" s="66"/>
-      <c r="L159" s="66"/>
-      <c r="M159" s="66"/>
-      <c r="N159" s="66"/>
+      <c r="I159" s="125"/>
+      <c r="J159" s="125"/>
+      <c r="K159" s="125"/>
+      <c r="L159" s="125"/>
+      <c r="M159" s="125"/>
+      <c r="N159" s="125"/>
       <c r="O159" s="14"/>
-      <c r="P159" s="58"/>
+      <c r="P159" s="145"/>
     </row>
     <row r="160" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="84"/>
-      <c r="B160" s="82"/>
-      <c r="C160" s="82"/>
-      <c r="D160" s="91"/>
-      <c r="E160" s="82"/>
+      <c r="A160" s="89"/>
+      <c r="B160" s="97"/>
+      <c r="C160" s="97"/>
+      <c r="D160" s="93"/>
+      <c r="E160" s="97"/>
       <c r="F160" s="34" t="s">
         <v>248</v>
       </c>
       <c r="G160" s="34"/>
       <c r="H160" s="22"/>
-      <c r="I160" s="66"/>
-      <c r="J160" s="66"/>
-      <c r="K160" s="66"/>
-      <c r="L160" s="66"/>
-      <c r="M160" s="66"/>
-      <c r="N160" s="66"/>
+      <c r="I160" s="125"/>
+      <c r="J160" s="125"/>
+      <c r="K160" s="125"/>
+      <c r="L160" s="125"/>
+      <c r="M160" s="125"/>
+      <c r="N160" s="125"/>
       <c r="O160" s="14"/>
-      <c r="P160" s="58"/>
+      <c r="P160" s="145"/>
     </row>
     <row r="161" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="84"/>
-      <c r="B161" s="82"/>
-      <c r="C161" s="82"/>
-      <c r="D161" s="91"/>
-      <c r="E161" s="82" t="s">
+      <c r="A161" s="89"/>
+      <c r="B161" s="97"/>
+      <c r="C161" s="97"/>
+      <c r="D161" s="93"/>
+      <c r="E161" s="97" t="s">
         <v>249</v>
       </c>
       <c r="F161" s="34" t="s">
@@ -7328,80 +7328,80 @@
       </c>
       <c r="G161" s="34"/>
       <c r="H161" s="22"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="66"/>
-      <c r="K161" s="66"/>
-      <c r="L161" s="66"/>
-      <c r="M161" s="66"/>
-      <c r="N161" s="66"/>
+      <c r="I161" s="125"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="125"/>
+      <c r="L161" s="125"/>
+      <c r="M161" s="125"/>
+      <c r="N161" s="125"/>
       <c r="O161" s="14"/>
-      <c r="P161" s="58"/>
+      <c r="P161" s="145"/>
     </row>
     <row r="162" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="84"/>
-      <c r="B162" s="82"/>
-      <c r="C162" s="82"/>
-      <c r="D162" s="91"/>
-      <c r="E162" s="82"/>
+      <c r="A162" s="89"/>
+      <c r="B162" s="97"/>
+      <c r="C162" s="97"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="97"/>
       <c r="F162" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G162" s="34"/>
       <c r="H162" s="22"/>
-      <c r="I162" s="66"/>
-      <c r="J162" s="66"/>
-      <c r="K162" s="66"/>
-      <c r="L162" s="66"/>
-      <c r="M162" s="66"/>
-      <c r="N162" s="66"/>
+      <c r="I162" s="125"/>
+      <c r="J162" s="125"/>
+      <c r="K162" s="125"/>
+      <c r="L162" s="125"/>
+      <c r="M162" s="125"/>
+      <c r="N162" s="125"/>
       <c r="O162" s="14"/>
-      <c r="P162" s="58"/>
+      <c r="P162" s="145"/>
     </row>
     <row r="163" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="84"/>
-      <c r="B163" s="82"/>
-      <c r="C163" s="82"/>
-      <c r="D163" s="91"/>
-      <c r="E163" s="82"/>
+      <c r="A163" s="89"/>
+      <c r="B163" s="97"/>
+      <c r="C163" s="97"/>
+      <c r="D163" s="93"/>
+      <c r="E163" s="97"/>
       <c r="F163" s="34" t="s">
         <v>247</v>
       </c>
       <c r="G163" s="34"/>
       <c r="H163" s="22"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="66"/>
-      <c r="K163" s="66"/>
-      <c r="L163" s="66"/>
-      <c r="M163" s="66"/>
-      <c r="N163" s="66"/>
+      <c r="I163" s="125"/>
+      <c r="J163" s="125"/>
+      <c r="K163" s="125"/>
+      <c r="L163" s="125"/>
+      <c r="M163" s="125"/>
+      <c r="N163" s="125"/>
       <c r="O163" s="14"/>
-      <c r="P163" s="58"/>
+      <c r="P163" s="145"/>
     </row>
     <row r="164" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="84"/>
-      <c r="B164" s="82"/>
-      <c r="C164" s="82"/>
-      <c r="D164" s="92"/>
-      <c r="E164" s="82"/>
+      <c r="A164" s="89"/>
+      <c r="B164" s="97"/>
+      <c r="C164" s="97"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="97"/>
       <c r="F164" s="34" t="s">
         <v>248</v>
       </c>
       <c r="G164" s="34"/>
       <c r="H164" s="22"/>
-      <c r="I164" s="66"/>
-      <c r="J164" s="66"/>
-      <c r="K164" s="66"/>
-      <c r="L164" s="66"/>
-      <c r="M164" s="66"/>
-      <c r="N164" s="66"/>
+      <c r="I164" s="125"/>
+      <c r="J164" s="125"/>
+      <c r="K164" s="125"/>
+      <c r="L164" s="125"/>
+      <c r="M164" s="125"/>
+      <c r="N164" s="125"/>
       <c r="O164" s="14"/>
-      <c r="P164" s="58"/>
+      <c r="P164" s="145"/>
     </row>
     <row r="165" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="84"/>
-      <c r="B165" s="82"/>
-      <c r="C165" s="82"/>
-      <c r="D165" s="82" t="s">
+      <c r="A165" s="89"/>
+      <c r="B165" s="97"/>
+      <c r="C165" s="97"/>
+      <c r="D165" s="97" t="s">
         <v>250</v>
       </c>
       <c r="E165" s="34" t="s">
@@ -7410,40 +7410,40 @@
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
       <c r="H165" s="22"/>
-      <c r="I165" s="66"/>
-      <c r="J165" s="66"/>
-      <c r="K165" s="66"/>
-      <c r="L165" s="66"/>
-      <c r="M165" s="66"/>
-      <c r="N165" s="66"/>
+      <c r="I165" s="125"/>
+      <c r="J165" s="125"/>
+      <c r="K165" s="125"/>
+      <c r="L165" s="125"/>
+      <c r="M165" s="125"/>
+      <c r="N165" s="125"/>
       <c r="O165" s="14"/>
-      <c r="P165" s="58"/>
+      <c r="P165" s="145"/>
     </row>
     <row r="166" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="84"/>
-      <c r="B166" s="82"/>
-      <c r="C166" s="82"/>
-      <c r="D166" s="82"/>
+      <c r="A166" s="89"/>
+      <c r="B166" s="97"/>
+      <c r="C166" s="97"/>
+      <c r="D166" s="97"/>
       <c r="E166" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
       <c r="H166" s="22"/>
-      <c r="I166" s="66"/>
-      <c r="J166" s="66"/>
-      <c r="K166" s="66"/>
-      <c r="L166" s="66"/>
-      <c r="M166" s="66"/>
-      <c r="N166" s="66"/>
+      <c r="I166" s="125"/>
+      <c r="J166" s="125"/>
+      <c r="K166" s="125"/>
+      <c r="L166" s="125"/>
+      <c r="M166" s="125"/>
+      <c r="N166" s="125"/>
       <c r="O166" s="14"/>
-      <c r="P166" s="58"/>
+      <c r="P166" s="145"/>
     </row>
     <row r="167" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="84"/>
-      <c r="B167" s="82"/>
-      <c r="C167" s="82"/>
-      <c r="D167" s="82"/>
+      <c r="A167" s="89"/>
+      <c r="B167" s="97"/>
+      <c r="C167" s="97"/>
+      <c r="D167" s="97"/>
       <c r="E167" s="34" t="s">
         <v>251</v>
       </c>
@@ -7452,20 +7452,20 @@
       </c>
       <c r="G167" s="34"/>
       <c r="H167" s="22"/>
-      <c r="I167" s="66"/>
-      <c r="J167" s="66"/>
-      <c r="K167" s="66"/>
-      <c r="L167" s="66"/>
-      <c r="M167" s="66"/>
-      <c r="N167" s="66"/>
+      <c r="I167" s="125"/>
+      <c r="J167" s="125"/>
+      <c r="K167" s="125"/>
+      <c r="L167" s="125"/>
+      <c r="M167" s="125"/>
+      <c r="N167" s="125"/>
       <c r="O167" s="14"/>
-      <c r="P167" s="58"/>
+      <c r="P167" s="145"/>
     </row>
     <row r="168" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="84"/>
-      <c r="B168" s="82"/>
-      <c r="C168" s="82"/>
-      <c r="D168" s="82"/>
+      <c r="A168" s="89"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="97"/>
       <c r="E168" s="34" t="s">
         <v>253</v>
       </c>
@@ -7474,20 +7474,20 @@
       </c>
       <c r="G168" s="34"/>
       <c r="H168" s="21"/>
-      <c r="I168" s="66"/>
-      <c r="J168" s="66"/>
-      <c r="K168" s="66"/>
-      <c r="L168" s="66"/>
-      <c r="M168" s="66"/>
-      <c r="N168" s="66"/>
+      <c r="I168" s="125"/>
+      <c r="J168" s="125"/>
+      <c r="K168" s="125"/>
+      <c r="L168" s="125"/>
+      <c r="M168" s="125"/>
+      <c r="N168" s="125"/>
       <c r="O168" s="14"/>
-      <c r="P168" s="58"/>
+      <c r="P168" s="145"/>
     </row>
     <row r="169" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A169" s="84"/>
-      <c r="B169" s="82"/>
-      <c r="C169" s="82"/>
-      <c r="D169" s="82"/>
+      <c r="A169" s="89"/>
+      <c r="B169" s="97"/>
+      <c r="C169" s="97"/>
+      <c r="D169" s="97"/>
       <c r="E169" s="34" t="s">
         <v>255</v>
       </c>
@@ -7496,20 +7496,20 @@
       </c>
       <c r="G169" s="34"/>
       <c r="H169" s="22"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="66"/>
-      <c r="K169" s="66"/>
-      <c r="L169" s="66"/>
-      <c r="M169" s="66"/>
-      <c r="N169" s="66"/>
+      <c r="I169" s="125"/>
+      <c r="J169" s="125"/>
+      <c r="K169" s="125"/>
+      <c r="L169" s="125"/>
+      <c r="M169" s="125"/>
+      <c r="N169" s="125"/>
       <c r="O169" s="14"/>
-      <c r="P169" s="58"/>
+      <c r="P169" s="145"/>
     </row>
     <row r="170" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="84"/>
-      <c r="B170" s="82"/>
-      <c r="C170" s="82"/>
-      <c r="D170" s="82"/>
+      <c r="A170" s="89"/>
+      <c r="B170" s="97"/>
+      <c r="C170" s="97"/>
+      <c r="D170" s="97"/>
       <c r="E170" s="34" t="s">
         <v>257</v>
       </c>
@@ -7518,20 +7518,20 @@
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="22"/>
-      <c r="I170" s="66"/>
-      <c r="J170" s="66"/>
-      <c r="K170" s="66"/>
-      <c r="L170" s="66"/>
-      <c r="M170" s="66"/>
-      <c r="N170" s="66"/>
+      <c r="I170" s="125"/>
+      <c r="J170" s="125"/>
+      <c r="K170" s="125"/>
+      <c r="L170" s="125"/>
+      <c r="M170" s="125"/>
+      <c r="N170" s="125"/>
       <c r="O170" s="14"/>
-      <c r="P170" s="58"/>
+      <c r="P170" s="145"/>
     </row>
     <row r="171" spans="1:16" s="16" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A171" s="84"/>
-      <c r="B171" s="82"/>
-      <c r="C171" s="82"/>
-      <c r="D171" s="82"/>
+      <c r="A171" s="89"/>
+      <c r="B171" s="97"/>
+      <c r="C171" s="97"/>
+      <c r="D171" s="97"/>
       <c r="E171" s="34" t="s">
         <v>259</v>
       </c>
@@ -7540,20 +7540,20 @@
       </c>
       <c r="G171" s="34"/>
       <c r="H171" s="22"/>
-      <c r="I171" s="66"/>
-      <c r="J171" s="66"/>
-      <c r="K171" s="66"/>
-      <c r="L171" s="66"/>
-      <c r="M171" s="66"/>
-      <c r="N171" s="66"/>
+      <c r="I171" s="125"/>
+      <c r="J171" s="125"/>
+      <c r="K171" s="125"/>
+      <c r="L171" s="125"/>
+      <c r="M171" s="125"/>
+      <c r="N171" s="125"/>
       <c r="O171" s="14"/>
-      <c r="P171" s="58"/>
+      <c r="P171" s="145"/>
     </row>
     <row r="172" spans="1:16" s="16" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A172" s="84"/>
-      <c r="B172" s="82"/>
-      <c r="C172" s="82"/>
-      <c r="D172" s="82"/>
+      <c r="A172" s="89"/>
+      <c r="B172" s="97"/>
+      <c r="C172" s="97"/>
+      <c r="D172" s="97"/>
       <c r="E172" s="34" t="s">
         <v>261</v>
       </c>
@@ -7562,19 +7562,19 @@
       </c>
       <c r="G172" s="34"/>
       <c r="H172" s="22"/>
-      <c r="I172" s="66"/>
-      <c r="J172" s="66"/>
-      <c r="K172" s="66"/>
-      <c r="L172" s="66"/>
-      <c r="M172" s="66"/>
-      <c r="N172" s="66"/>
+      <c r="I172" s="125"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="125"/>
+      <c r="M172" s="125"/>
+      <c r="N172" s="125"/>
       <c r="O172" s="14"/>
-      <c r="P172" s="58"/>
+      <c r="P172" s="145"/>
     </row>
     <row r="173" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A173" s="84"/>
-      <c r="B173" s="82"/>
-      <c r="C173" s="82"/>
+      <c r="A173" s="89"/>
+      <c r="B173" s="97"/>
+      <c r="C173" s="97"/>
       <c r="D173" s="34" t="s">
         <v>263</v>
       </c>
@@ -7584,19 +7584,19 @@
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="22"/>
-      <c r="I173" s="65"/>
-      <c r="J173" s="65"/>
-      <c r="K173" s="65"/>
-      <c r="L173" s="65"/>
-      <c r="M173" s="65"/>
-      <c r="N173" s="65"/>
+      <c r="I173" s="126"/>
+      <c r="J173" s="126"/>
+      <c r="K173" s="126"/>
+      <c r="L173" s="126"/>
+      <c r="M173" s="126"/>
+      <c r="N173" s="126"/>
       <c r="O173" s="14"/>
-      <c r="P173" s="58"/>
+      <c r="P173" s="145"/>
     </row>
     <row r="174" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="84"/>
-      <c r="B174" s="82"/>
-      <c r="C174" s="82" t="s">
+      <c r="A174" s="89"/>
+      <c r="B174" s="97"/>
+      <c r="C174" s="97" t="s">
         <v>265</v>
       </c>
       <c r="D174" s="34" t="s">
@@ -7608,27 +7608,27 @@
       </c>
       <c r="G174" s="34"/>
       <c r="H174" s="22"/>
-      <c r="I174" s="64"/>
-      <c r="J174" s="64">
+      <c r="I174" s="124"/>
+      <c r="J174" s="124">
         <v>3</v>
       </c>
-      <c r="K174" s="64">
+      <c r="K174" s="124">
         <v>10</v>
       </c>
-      <c r="L174" s="64"/>
-      <c r="M174" s="64"/>
-      <c r="N174" s="64">
+      <c r="L174" s="124"/>
+      <c r="M174" s="124"/>
+      <c r="N174" s="124">
         <v>14</v>
       </c>
       <c r="O174" s="14"/>
-      <c r="P174" s="62" t="s">
-        <v>445</v>
+      <c r="P174" s="152" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="84"/>
-      <c r="B175" s="82"/>
-      <c r="C175" s="82"/>
+      <c r="A175" s="89"/>
+      <c r="B175" s="97"/>
+      <c r="C175" s="97"/>
       <c r="D175" s="34" t="s">
         <v>266</v>
       </c>
@@ -7638,19 +7638,19 @@
       </c>
       <c r="G175" s="34"/>
       <c r="H175" s="22"/>
-      <c r="I175" s="66"/>
-      <c r="J175" s="66"/>
-      <c r="K175" s="66"/>
-      <c r="L175" s="66"/>
-      <c r="M175" s="66"/>
-      <c r="N175" s="66"/>
+      <c r="I175" s="125"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="125"/>
+      <c r="L175" s="125"/>
+      <c r="M175" s="125"/>
+      <c r="N175" s="125"/>
       <c r="O175" s="14"/>
-      <c r="P175" s="58"/>
+      <c r="P175" s="145"/>
     </row>
     <row r="176" spans="1:16" s="16" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="84"/>
-      <c r="B176" s="82"/>
-      <c r="C176" s="82"/>
+      <c r="A176" s="89"/>
+      <c r="B176" s="97"/>
+      <c r="C176" s="97"/>
       <c r="D176" s="35" t="s">
         <v>268</v>
       </c>
@@ -7662,19 +7662,19 @@
         <v>270</v>
       </c>
       <c r="H176" s="22"/>
-      <c r="I176" s="66"/>
-      <c r="J176" s="66"/>
-      <c r="K176" s="66"/>
-      <c r="L176" s="66"/>
-      <c r="M176" s="66"/>
-      <c r="N176" s="66"/>
+      <c r="I176" s="125"/>
+      <c r="J176" s="125"/>
+      <c r="K176" s="125"/>
+      <c r="L176" s="125"/>
+      <c r="M176" s="125"/>
+      <c r="N176" s="125"/>
       <c r="O176" s="14"/>
-      <c r="P176" s="58"/>
+      <c r="P176" s="145"/>
     </row>
     <row r="177" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A177" s="84"/>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
+      <c r="A177" s="89"/>
+      <c r="B177" s="97"/>
+      <c r="C177" s="97"/>
       <c r="D177" s="34" t="s">
         <v>271</v>
       </c>
@@ -7684,21 +7684,21 @@
       </c>
       <c r="G177" s="34"/>
       <c r="H177" s="22"/>
-      <c r="I177" s="65"/>
-      <c r="J177" s="65"/>
-      <c r="K177" s="65"/>
-      <c r="L177" s="65"/>
-      <c r="M177" s="65"/>
-      <c r="N177" s="65"/>
+      <c r="I177" s="126"/>
+      <c r="J177" s="126"/>
+      <c r="K177" s="126"/>
+      <c r="L177" s="126"/>
+      <c r="M177" s="126"/>
+      <c r="N177" s="126"/>
       <c r="O177" s="14"/>
-      <c r="P177" s="58"/>
+      <c r="P177" s="145"/>
     </row>
     <row r="178" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="84"/>
-      <c r="B178" s="89" t="s">
+      <c r="A178" s="89"/>
+      <c r="B178" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="C178" s="89" t="s">
+      <c r="C178" s="98" t="s">
         <v>274</v>
       </c>
       <c r="D178" s="34" t="s">
@@ -7708,25 +7708,25 @@
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
       <c r="H178" s="22"/>
-      <c r="I178" s="64"/>
-      <c r="J178" s="64">
+      <c r="I178" s="124"/>
+      <c r="J178" s="124">
         <v>2</v>
       </c>
-      <c r="K178" s="64">
+      <c r="K178" s="124">
         <v>2</v>
       </c>
-      <c r="L178" s="64"/>
-      <c r="M178" s="64"/>
-      <c r="N178" s="64">
+      <c r="L178" s="124"/>
+      <c r="M178" s="124"/>
+      <c r="N178" s="124">
         <v>2</v>
       </c>
       <c r="O178" s="14"/>
       <c r="P178" s="48"/>
     </row>
     <row r="179" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="84"/>
-      <c r="B179" s="93"/>
-      <c r="C179" s="93"/>
+      <c r="A179" s="89"/>
+      <c r="B179" s="99"/>
+      <c r="C179" s="99"/>
       <c r="D179" s="34" t="s">
         <v>276</v>
       </c>
@@ -7734,19 +7734,19 @@
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
       <c r="H179" s="22"/>
-      <c r="I179" s="66"/>
-      <c r="J179" s="66"/>
-      <c r="K179" s="66"/>
-      <c r="L179" s="66"/>
-      <c r="M179" s="66"/>
-      <c r="N179" s="66"/>
+      <c r="I179" s="125"/>
+      <c r="J179" s="125"/>
+      <c r="K179" s="125"/>
+      <c r="L179" s="125"/>
+      <c r="M179" s="125"/>
+      <c r="N179" s="125"/>
       <c r="O179" s="14"/>
       <c r="P179" s="48"/>
     </row>
     <row r="180" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="84"/>
-      <c r="B180" s="93"/>
-      <c r="C180" s="94"/>
+      <c r="A180" s="89"/>
+      <c r="B180" s="99"/>
+      <c r="C180" s="100"/>
       <c r="D180" s="34" t="s">
         <v>277</v>
       </c>
@@ -7754,19 +7754,19 @@
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
       <c r="H180" s="22"/>
-      <c r="I180" s="66"/>
-      <c r="J180" s="66"/>
-      <c r="K180" s="66"/>
-      <c r="L180" s="66"/>
-      <c r="M180" s="66"/>
-      <c r="N180" s="66"/>
+      <c r="I180" s="125"/>
+      <c r="J180" s="125"/>
+      <c r="K180" s="125"/>
+      <c r="L180" s="125"/>
+      <c r="M180" s="125"/>
+      <c r="N180" s="125"/>
       <c r="O180" s="14"/>
       <c r="P180" s="48"/>
     </row>
     <row r="181" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="84"/>
-      <c r="B181" s="93"/>
-      <c r="C181" s="89" t="s">
+      <c r="A181" s="89"/>
+      <c r="B181" s="99"/>
+      <c r="C181" s="98" t="s">
         <v>278</v>
       </c>
       <c r="D181" s="34" t="s">
@@ -7778,19 +7778,19 @@
       </c>
       <c r="G181" s="34"/>
       <c r="H181" s="22"/>
-      <c r="I181" s="66"/>
-      <c r="J181" s="66"/>
-      <c r="K181" s="66"/>
-      <c r="L181" s="66"/>
-      <c r="M181" s="66"/>
-      <c r="N181" s="66"/>
+      <c r="I181" s="125"/>
+      <c r="J181" s="125"/>
+      <c r="K181" s="125"/>
+      <c r="L181" s="125"/>
+      <c r="M181" s="125"/>
+      <c r="N181" s="125"/>
       <c r="O181" s="14"/>
       <c r="P181" s="48"/>
     </row>
     <row r="182" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="84"/>
-      <c r="B182" s="93"/>
-      <c r="C182" s="94"/>
+      <c r="A182" s="89"/>
+      <c r="B182" s="99"/>
+      <c r="C182" s="100"/>
       <c r="D182" s="34" t="s">
         <v>281</v>
       </c>
@@ -7800,19 +7800,19 @@
       </c>
       <c r="G182" s="34"/>
       <c r="H182" s="22"/>
-      <c r="I182" s="66"/>
-      <c r="J182" s="66"/>
-      <c r="K182" s="66"/>
-      <c r="L182" s="66"/>
-      <c r="M182" s="66"/>
-      <c r="N182" s="66"/>
+      <c r="I182" s="125"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="125"/>
+      <c r="L182" s="125"/>
+      <c r="M182" s="125"/>
+      <c r="N182" s="125"/>
       <c r="O182" s="14"/>
       <c r="P182" s="48"/>
     </row>
     <row r="183" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="84"/>
-      <c r="B183" s="93"/>
-      <c r="C183" s="89" t="s">
+      <c r="A183" s="89"/>
+      <c r="B183" s="99"/>
+      <c r="C183" s="98" t="s">
         <v>283</v>
       </c>
       <c r="D183" s="34" t="s">
@@ -7824,19 +7824,19 @@
       </c>
       <c r="G183" s="34"/>
       <c r="H183" s="22"/>
-      <c r="I183" s="66"/>
-      <c r="J183" s="66"/>
-      <c r="K183" s="66"/>
-      <c r="L183" s="66"/>
-      <c r="M183" s="66"/>
-      <c r="N183" s="66"/>
+      <c r="I183" s="125"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="125"/>
+      <c r="L183" s="125"/>
+      <c r="M183" s="125"/>
+      <c r="N183" s="125"/>
       <c r="O183" s="14"/>
       <c r="P183" s="48"/>
     </row>
     <row r="184" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="84"/>
-      <c r="B184" s="93"/>
-      <c r="C184" s="93"/>
+      <c r="A184" s="89"/>
+      <c r="B184" s="99"/>
+      <c r="C184" s="99"/>
       <c r="D184" s="34" t="s">
         <v>276</v>
       </c>
@@ -7844,19 +7844,19 @@
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
       <c r="H184" s="22"/>
-      <c r="I184" s="66"/>
-      <c r="J184" s="66"/>
-      <c r="K184" s="66"/>
-      <c r="L184" s="66"/>
-      <c r="M184" s="66"/>
-      <c r="N184" s="66"/>
+      <c r="I184" s="125"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="125"/>
+      <c r="L184" s="125"/>
+      <c r="M184" s="125"/>
+      <c r="N184" s="125"/>
       <c r="O184" s="14"/>
       <c r="P184" s="48"/>
     </row>
     <row r="185" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="84"/>
-      <c r="B185" s="94"/>
-      <c r="C185" s="94"/>
+      <c r="A185" s="89"/>
+      <c r="B185" s="100"/>
+      <c r="C185" s="100"/>
       <c r="D185" s="34" t="s">
         <v>277</v>
       </c>
@@ -7864,18 +7864,18 @@
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
       <c r="H185" s="22"/>
-      <c r="I185" s="65"/>
-      <c r="J185" s="65"/>
-      <c r="K185" s="65"/>
-      <c r="L185" s="65"/>
-      <c r="M185" s="65"/>
-      <c r="N185" s="65"/>
+      <c r="I185" s="126"/>
+      <c r="J185" s="126"/>
+      <c r="K185" s="126"/>
+      <c r="L185" s="126"/>
+      <c r="M185" s="126"/>
+      <c r="N185" s="126"/>
       <c r="O185" s="14"/>
       <c r="P185" s="48"/>
     </row>
     <row r="186" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A186" s="84"/>
-      <c r="B186" s="89" t="s">
+      <c r="A186" s="89"/>
+      <c r="B186" s="98" t="s">
         <v>285</v>
       </c>
       <c r="C186" s="34" t="s">
@@ -7886,25 +7886,25 @@
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
       <c r="H186" s="22"/>
-      <c r="I186" s="64"/>
-      <c r="J186" s="64">
+      <c r="I186" s="124"/>
+      <c r="J186" s="124">
         <v>0.5</v>
       </c>
-      <c r="K186" s="64">
+      <c r="K186" s="124">
         <v>1</v>
       </c>
-      <c r="L186" s="64"/>
-      <c r="M186" s="64"/>
-      <c r="N186" s="64">
+      <c r="L186" s="124"/>
+      <c r="M186" s="124"/>
+      <c r="N186" s="124">
         <v>1</v>
       </c>
       <c r="O186" s="14"/>
       <c r="P186" s="48"/>
     </row>
     <row r="187" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="84"/>
-      <c r="B187" s="90"/>
-      <c r="C187" s="82" t="s">
+      <c r="A187" s="89"/>
+      <c r="B187" s="106"/>
+      <c r="C187" s="97" t="s">
         <v>287</v>
       </c>
       <c r="D187" s="34" t="s">
@@ -7916,19 +7916,19 @@
       </c>
       <c r="G187" s="34"/>
       <c r="H187" s="22"/>
-      <c r="I187" s="66"/>
-      <c r="J187" s="66"/>
-      <c r="K187" s="66"/>
-      <c r="L187" s="66"/>
-      <c r="M187" s="66"/>
-      <c r="N187" s="66"/>
+      <c r="I187" s="125"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="125"/>
+      <c r="L187" s="125"/>
+      <c r="M187" s="125"/>
+      <c r="N187" s="125"/>
       <c r="O187" s="14"/>
       <c r="P187" s="48"/>
     </row>
     <row r="188" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="84"/>
-      <c r="B188" s="91"/>
-      <c r="C188" s="82"/>
+      <c r="A188" s="89"/>
+      <c r="B188" s="93"/>
+      <c r="C188" s="97"/>
       <c r="D188" s="34" t="s">
         <v>290</v>
       </c>
@@ -7938,19 +7938,19 @@
       </c>
       <c r="G188" s="34"/>
       <c r="H188" s="22"/>
-      <c r="I188" s="66"/>
-      <c r="J188" s="66"/>
-      <c r="K188" s="66"/>
-      <c r="L188" s="66"/>
-      <c r="M188" s="66"/>
-      <c r="N188" s="66"/>
+      <c r="I188" s="125"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="125"/>
+      <c r="L188" s="125"/>
+      <c r="M188" s="125"/>
+      <c r="N188" s="125"/>
       <c r="O188" s="14"/>
       <c r="P188" s="48"/>
     </row>
     <row r="189" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A189" s="84"/>
-      <c r="B189" s="91"/>
-      <c r="C189" s="82"/>
+      <c r="A189" s="89"/>
+      <c r="B189" s="93"/>
+      <c r="C189" s="97"/>
       <c r="D189" s="34" t="s">
         <v>31</v>
       </c>
@@ -7960,19 +7960,19 @@
       </c>
       <c r="G189" s="34"/>
       <c r="H189" s="22"/>
-      <c r="I189" s="66"/>
-      <c r="J189" s="66"/>
-      <c r="K189" s="66"/>
-      <c r="L189" s="66"/>
-      <c r="M189" s="66"/>
-      <c r="N189" s="66"/>
+      <c r="I189" s="125"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="125"/>
+      <c r="L189" s="125"/>
+      <c r="M189" s="125"/>
+      <c r="N189" s="125"/>
       <c r="O189" s="14"/>
       <c r="P189" s="48"/>
     </row>
     <row r="190" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="84"/>
-      <c r="B190" s="91"/>
-      <c r="C190" s="82" t="s">
+      <c r="A190" s="89"/>
+      <c r="B190" s="93"/>
+      <c r="C190" s="97" t="s">
         <v>292</v>
       </c>
       <c r="D190" s="34" t="s">
@@ -7984,19 +7984,19 @@
       </c>
       <c r="G190" s="34"/>
       <c r="H190" s="22"/>
-      <c r="I190" s="66"/>
-      <c r="J190" s="66"/>
-      <c r="K190" s="66"/>
-      <c r="L190" s="66"/>
-      <c r="M190" s="66"/>
-      <c r="N190" s="66"/>
+      <c r="I190" s="125"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="125"/>
+      <c r="L190" s="125"/>
+      <c r="M190" s="125"/>
+      <c r="N190" s="125"/>
       <c r="O190" s="14"/>
       <c r="P190" s="48"/>
     </row>
     <row r="191" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="84"/>
-      <c r="B191" s="91"/>
-      <c r="C191" s="82"/>
+      <c r="A191" s="89"/>
+      <c r="B191" s="93"/>
+      <c r="C191" s="97"/>
       <c r="D191" s="34" t="s">
         <v>295</v>
       </c>
@@ -8006,19 +8006,19 @@
       </c>
       <c r="G191" s="34"/>
       <c r="H191" s="22"/>
-      <c r="I191" s="66"/>
-      <c r="J191" s="66"/>
-      <c r="K191" s="66"/>
-      <c r="L191" s="66"/>
-      <c r="M191" s="66"/>
-      <c r="N191" s="66"/>
+      <c r="I191" s="125"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="125"/>
+      <c r="L191" s="125"/>
+      <c r="M191" s="125"/>
+      <c r="N191" s="125"/>
       <c r="O191" s="14"/>
       <c r="P191" s="48"/>
     </row>
     <row r="192" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="84"/>
-      <c r="B192" s="91"/>
-      <c r="C192" s="82" t="s">
+      <c r="A192" s="89"/>
+      <c r="B192" s="93"/>
+      <c r="C192" s="97" t="s">
         <v>296</v>
       </c>
       <c r="D192" s="34" t="s">
@@ -8030,19 +8030,19 @@
       </c>
       <c r="G192" s="34"/>
       <c r="H192" s="22"/>
-      <c r="I192" s="66"/>
-      <c r="J192" s="66"/>
-      <c r="K192" s="66"/>
-      <c r="L192" s="66"/>
-      <c r="M192" s="66"/>
-      <c r="N192" s="66"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="125"/>
+      <c r="L192" s="125"/>
+      <c r="M192" s="125"/>
+      <c r="N192" s="125"/>
       <c r="O192" s="14"/>
       <c r="P192" s="48"/>
     </row>
     <row r="193" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="84"/>
-      <c r="B193" s="92"/>
-      <c r="C193" s="82"/>
+      <c r="A193" s="89"/>
+      <c r="B193" s="96"/>
+      <c r="C193" s="97"/>
       <c r="D193" s="34" t="s">
         <v>299</v>
       </c>
@@ -8052,21 +8052,21 @@
       </c>
       <c r="G193" s="34"/>
       <c r="H193" s="22"/>
-      <c r="I193" s="65"/>
-      <c r="J193" s="65"/>
-      <c r="K193" s="65"/>
-      <c r="L193" s="65"/>
-      <c r="M193" s="65"/>
-      <c r="N193" s="65"/>
+      <c r="I193" s="126"/>
+      <c r="J193" s="126"/>
+      <c r="K193" s="126"/>
+      <c r="L193" s="126"/>
+      <c r="M193" s="126"/>
+      <c r="N193" s="126"/>
       <c r="O193" s="14"/>
       <c r="P193" s="48"/>
     </row>
     <row r="194" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="84"/>
-      <c r="B194" s="82" t="s">
+      <c r="A194" s="89"/>
+      <c r="B194" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="C194" s="82" t="s">
+      <c r="C194" s="97" t="s">
         <v>301</v>
       </c>
       <c r="D194" s="34" t="s">
@@ -8080,25 +8080,25 @@
       </c>
       <c r="G194" s="34"/>
       <c r="H194" s="22"/>
-      <c r="I194" s="64"/>
-      <c r="J194" s="64">
+      <c r="I194" s="124"/>
+      <c r="J194" s="124">
         <v>0.75</v>
       </c>
-      <c r="K194" s="64">
+      <c r="K194" s="124">
         <v>0.75</v>
       </c>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
-      <c r="N194" s="64">
+      <c r="L194" s="124"/>
+      <c r="M194" s="124"/>
+      <c r="N194" s="124">
         <v>0.75</v>
       </c>
       <c r="O194" s="14"/>
       <c r="P194" s="48"/>
     </row>
     <row r="195" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="84"/>
-      <c r="B195" s="82"/>
-      <c r="C195" s="82"/>
+      <c r="A195" s="89"/>
+      <c r="B195" s="97"/>
+      <c r="C195" s="97"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
         <v>304</v>
@@ -8108,1001 +8108,1001 @@
       </c>
       <c r="G195" s="34"/>
       <c r="H195" s="22"/>
-      <c r="I195" s="65"/>
-      <c r="J195" s="65"/>
-      <c r="K195" s="65"/>
-      <c r="L195" s="65"/>
-      <c r="M195" s="65"/>
-      <c r="N195" s="65"/>
+      <c r="I195" s="126"/>
+      <c r="J195" s="126"/>
+      <c r="K195" s="126"/>
+      <c r="L195" s="126"/>
+      <c r="M195" s="126"/>
+      <c r="N195" s="126"/>
       <c r="O195" s="14"/>
       <c r="P195" s="48"/>
     </row>
     <row r="196" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="84"/>
-      <c r="B196" s="114" t="s">
+      <c r="A196" s="89"/>
+      <c r="B196" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="C196" s="114" t="s">
+      <c r="C196" s="101" t="s">
         <v>306</v>
       </c>
-      <c r="D196" s="115" t="s">
+      <c r="D196" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="E196" s="115"/>
-      <c r="F196" s="115" t="s">
+      <c r="E196" s="53"/>
+      <c r="F196" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="G196" s="115" t="s">
+      <c r="G196" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="H196" s="116"/>
-      <c r="I196" s="117"/>
-      <c r="J196" s="117"/>
-      <c r="K196" s="117"/>
-      <c r="L196" s="117"/>
-      <c r="M196" s="117"/>
-      <c r="N196" s="117"/>
-      <c r="O196" s="118"/>
-      <c r="P196" s="119" t="s">
-        <v>443</v>
+      <c r="H196" s="54"/>
+      <c r="I196" s="131"/>
+      <c r="J196" s="131"/>
+      <c r="K196" s="131"/>
+      <c r="L196" s="131"/>
+      <c r="M196" s="131"/>
+      <c r="N196" s="131"/>
+      <c r="O196" s="55"/>
+      <c r="P196" s="149" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="84"/>
-      <c r="B197" s="114"/>
-      <c r="C197" s="114"/>
-      <c r="D197" s="115" t="s">
+      <c r="A197" s="89"/>
+      <c r="B197" s="101"/>
+      <c r="C197" s="101"/>
+      <c r="D197" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="115"/>
-      <c r="F197" s="115" t="s">
+      <c r="E197" s="53"/>
+      <c r="F197" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="G197" s="115"/>
-      <c r="H197" s="116"/>
-      <c r="I197" s="120"/>
-      <c r="J197" s="120"/>
-      <c r="K197" s="120"/>
-      <c r="L197" s="120"/>
-      <c r="M197" s="120"/>
-      <c r="N197" s="120"/>
-      <c r="O197" s="118"/>
-      <c r="P197" s="121"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="132"/>
+      <c r="J197" s="132"/>
+      <c r="K197" s="132"/>
+      <c r="L197" s="132"/>
+      <c r="M197" s="132"/>
+      <c r="N197" s="132"/>
+      <c r="O197" s="55"/>
+      <c r="P197" s="150"/>
     </row>
     <row r="198" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="85"/>
-      <c r="B198" s="114"/>
-      <c r="C198" s="114"/>
-      <c r="D198" s="115" t="s">
+      <c r="A198" s="90"/>
+      <c r="B198" s="101"/>
+      <c r="C198" s="101"/>
+      <c r="D198" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="E198" s="115"/>
-      <c r="F198" s="115" t="s">
+      <c r="E198" s="53"/>
+      <c r="F198" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="G198" s="115"/>
-      <c r="H198" s="116"/>
-      <c r="I198" s="122"/>
-      <c r="J198" s="122"/>
-      <c r="K198" s="122"/>
-      <c r="L198" s="122"/>
-      <c r="M198" s="122"/>
-      <c r="N198" s="122"/>
-      <c r="O198" s="118"/>
-      <c r="P198" s="123"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="133"/>
+      <c r="J198" s="133"/>
+      <c r="K198" s="133"/>
+      <c r="L198" s="133"/>
+      <c r="M198" s="133"/>
+      <c r="N198" s="133"/>
+      <c r="O198" s="55"/>
+      <c r="P198" s="151"/>
     </row>
     <row r="199" spans="1:16" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A199" s="83" t="s">
+      <c r="A199" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="B199" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="B199" s="76" t="s">
+      <c r="C199" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="C199" s="88" t="s">
+      <c r="D199" s="36" t="s">
         <v>314</v>
-      </c>
-      <c r="D199" s="36" t="s">
-        <v>315</v>
       </c>
       <c r="E199" s="36"/>
       <c r="F199" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G199" s="36"/>
       <c r="H199" s="22"/>
       <c r="I199" s="41"/>
       <c r="J199" s="37"/>
-      <c r="K199" s="64">
+      <c r="K199" s="124">
         <v>10</v>
       </c>
-      <c r="L199" s="64"/>
-      <c r="M199" s="64"/>
-      <c r="N199" s="64">
+      <c r="L199" s="124"/>
+      <c r="M199" s="124"/>
+      <c r="N199" s="124">
         <v>0</v>
       </c>
       <c r="O199" s="14"/>
       <c r="P199" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="200" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A200" s="84"/>
-      <c r="B200" s="86"/>
-      <c r="C200" s="88"/>
+      <c r="A200" s="89"/>
+      <c r="B200" s="103"/>
+      <c r="C200" s="105"/>
       <c r="D200" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E200" s="36"/>
       <c r="F200" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G200" s="36"/>
       <c r="H200" s="22"/>
       <c r="I200" s="39"/>
       <c r="J200" s="29"/>
-      <c r="K200" s="66"/>
-      <c r="L200" s="66"/>
-      <c r="M200" s="66"/>
-      <c r="N200" s="66"/>
+      <c r="K200" s="125"/>
+      <c r="L200" s="125"/>
+      <c r="M200" s="125"/>
+      <c r="N200" s="125"/>
       <c r="O200" s="14"/>
       <c r="P200" s="48"/>
     </row>
     <row r="201" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A201" s="84"/>
-      <c r="B201" s="86"/>
-      <c r="C201" s="88"/>
+      <c r="A201" s="89"/>
+      <c r="B201" s="103"/>
+      <c r="C201" s="105"/>
       <c r="D201" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E201" s="36"/>
       <c r="F201" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G201" s="36"/>
       <c r="H201" s="22"/>
       <c r="I201" s="39"/>
       <c r="J201" s="29"/>
-      <c r="K201" s="66"/>
-      <c r="L201" s="66"/>
-      <c r="M201" s="66"/>
-      <c r="N201" s="66"/>
+      <c r="K201" s="125"/>
+      <c r="L201" s="125"/>
+      <c r="M201" s="125"/>
+      <c r="N201" s="125"/>
       <c r="O201" s="14"/>
       <c r="P201" s="48"/>
     </row>
     <row r="202" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="84"/>
-      <c r="B202" s="86"/>
-      <c r="C202" s="88"/>
+      <c r="A202" s="89"/>
+      <c r="B202" s="103"/>
+      <c r="C202" s="105"/>
       <c r="D202" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E202" s="36"/>
       <c r="F202" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G202" s="36"/>
       <c r="H202" s="22"/>
       <c r="I202" s="39"/>
       <c r="J202" s="29"/>
-      <c r="K202" s="66"/>
-      <c r="L202" s="66"/>
-      <c r="M202" s="66"/>
-      <c r="N202" s="66"/>
+      <c r="K202" s="125"/>
+      <c r="L202" s="125"/>
+      <c r="M202" s="125"/>
+      <c r="N202" s="125"/>
       <c r="O202" s="14"/>
       <c r="P202" s="48"/>
     </row>
     <row r="203" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="84"/>
-      <c r="B203" s="86"/>
-      <c r="C203" s="88"/>
-      <c r="D203" s="76" t="s">
+      <c r="A203" s="89"/>
+      <c r="B203" s="103"/>
+      <c r="C203" s="105"/>
+      <c r="D203" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E203" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E203" s="36" t="s">
+      <c r="F203" s="36" t="s">
         <v>324</v>
-      </c>
-      <c r="F203" s="36" t="s">
-        <v>325</v>
       </c>
       <c r="G203" s="36"/>
       <c r="H203" s="22"/>
       <c r="I203" s="39"/>
       <c r="J203" s="29"/>
-      <c r="K203" s="66"/>
-      <c r="L203" s="66"/>
-      <c r="M203" s="66"/>
-      <c r="N203" s="66"/>
+      <c r="K203" s="125"/>
+      <c r="L203" s="125"/>
+      <c r="M203" s="125"/>
+      <c r="N203" s="125"/>
       <c r="O203" s="14"/>
       <c r="P203" s="48"/>
     </row>
     <row r="204" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A204" s="84"/>
-      <c r="B204" s="86"/>
-      <c r="C204" s="88"/>
-      <c r="D204" s="80"/>
+      <c r="A204" s="89"/>
+      <c r="B204" s="103"/>
+      <c r="C204" s="105"/>
+      <c r="D204" s="113"/>
       <c r="E204" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F204" s="36" t="s">
         <v>326</v>
-      </c>
-      <c r="F204" s="36" t="s">
-        <v>327</v>
       </c>
       <c r="G204" s="36"/>
       <c r="H204" s="22"/>
       <c r="I204" s="39"/>
       <c r="J204" s="29"/>
-      <c r="K204" s="66"/>
-      <c r="L204" s="66"/>
-      <c r="M204" s="66"/>
-      <c r="N204" s="66"/>
+      <c r="K204" s="125"/>
+      <c r="L204" s="125"/>
+      <c r="M204" s="125"/>
+      <c r="N204" s="125"/>
       <c r="O204" s="14"/>
       <c r="P204" s="48"/>
     </row>
     <row r="205" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A205" s="84"/>
-      <c r="B205" s="86"/>
-      <c r="C205" s="88"/>
-      <c r="D205" s="80"/>
+      <c r="A205" s="89"/>
+      <c r="B205" s="103"/>
+      <c r="C205" s="105"/>
+      <c r="D205" s="113"/>
       <c r="E205" s="36" t="s">
         <v>174</v>
       </c>
       <c r="F205" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G205" s="36"/>
       <c r="H205" s="22"/>
       <c r="I205" s="39"/>
       <c r="J205" s="29"/>
-      <c r="K205" s="66"/>
-      <c r="L205" s="66"/>
-      <c r="M205" s="66"/>
-      <c r="N205" s="66"/>
+      <c r="K205" s="125"/>
+      <c r="L205" s="125"/>
+      <c r="M205" s="125"/>
+      <c r="N205" s="125"/>
       <c r="O205" s="14"/>
       <c r="P205" s="48"/>
     </row>
     <row r="206" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A206" s="84"/>
-      <c r="B206" s="86"/>
-      <c r="C206" s="88"/>
-      <c r="D206" s="81"/>
+      <c r="A206" s="89"/>
+      <c r="B206" s="103"/>
+      <c r="C206" s="105"/>
+      <c r="D206" s="114"/>
       <c r="E206" s="36" t="s">
         <v>176</v>
       </c>
       <c r="F206" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G206" s="36"/>
       <c r="H206" s="22"/>
       <c r="I206" s="39"/>
       <c r="J206" s="29"/>
-      <c r="K206" s="66"/>
-      <c r="L206" s="66"/>
-      <c r="M206" s="66"/>
-      <c r="N206" s="66"/>
+      <c r="K206" s="125"/>
+      <c r="L206" s="125"/>
+      <c r="M206" s="125"/>
+      <c r="N206" s="125"/>
       <c r="O206" s="14"/>
       <c r="P206" s="48"/>
     </row>
     <row r="207" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A207" s="84"/>
-      <c r="B207" s="86"/>
-      <c r="C207" s="88"/>
+      <c r="A207" s="89"/>
+      <c r="B207" s="103"/>
+      <c r="C207" s="105"/>
       <c r="D207" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E207" s="36"/>
       <c r="F207" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G207" s="36"/>
       <c r="H207" s="22"/>
       <c r="I207" s="39"/>
       <c r="J207" s="29"/>
-      <c r="K207" s="66"/>
-      <c r="L207" s="66"/>
-      <c r="M207" s="66"/>
-      <c r="N207" s="66"/>
+      <c r="K207" s="125"/>
+      <c r="L207" s="125"/>
+      <c r="M207" s="125"/>
+      <c r="N207" s="125"/>
       <c r="O207" s="14"/>
       <c r="P207" s="48"/>
     </row>
     <row r="208" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A208" s="84"/>
-      <c r="B208" s="86"/>
-      <c r="C208" s="88"/>
+      <c r="A208" s="89"/>
+      <c r="B208" s="103"/>
+      <c r="C208" s="105"/>
       <c r="D208" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E208" s="36"/>
       <c r="F208" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G208" s="36"/>
       <c r="H208" s="22"/>
       <c r="I208" s="39"/>
       <c r="J208" s="29"/>
-      <c r="K208" s="66"/>
-      <c r="L208" s="66"/>
-      <c r="M208" s="66"/>
-      <c r="N208" s="66"/>
+      <c r="K208" s="125"/>
+      <c r="L208" s="125"/>
+      <c r="M208" s="125"/>
+      <c r="N208" s="125"/>
       <c r="O208" s="14"/>
       <c r="P208" s="48"/>
     </row>
     <row r="209" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A209" s="85"/>
-      <c r="B209" s="87"/>
-      <c r="C209" s="88"/>
+      <c r="A209" s="90"/>
+      <c r="B209" s="104"/>
+      <c r="C209" s="105"/>
       <c r="D209" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E209" s="36"/>
       <c r="F209" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G209" s="36"/>
       <c r="H209" s="22"/>
       <c r="I209" s="40"/>
       <c r="J209" s="38"/>
-      <c r="K209" s="65"/>
-      <c r="L209" s="65"/>
-      <c r="M209" s="65"/>
-      <c r="N209" s="65"/>
+      <c r="K209" s="126"/>
+      <c r="L209" s="126"/>
+      <c r="M209" s="126"/>
+      <c r="N209" s="126"/>
       <c r="O209" s="14"/>
       <c r="P209" s="48"/>
     </row>
     <row r="210" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A210" s="124" t="s">
+      <c r="A210" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="B210" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="B210" s="125" t="s">
+      <c r="C210" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="C210" s="125" t="s">
+      <c r="D210" s="56"/>
+      <c r="E210" s="56"/>
+      <c r="F210" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="D210" s="125"/>
-      <c r="E210" s="125"/>
-      <c r="F210" s="125" t="s">
+      <c r="G210" s="56"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="58"/>
+      <c r="J210" s="58"/>
+      <c r="K210" s="59"/>
+      <c r="L210" s="59"/>
+      <c r="M210" s="59"/>
+      <c r="N210" s="60"/>
+      <c r="O210" s="60"/>
+      <c r="P210" s="48"/>
+    </row>
+    <row r="211" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A211" s="122"/>
+      <c r="B211" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" s="61"/>
+      <c r="D211" s="61"/>
+      <c r="E211" s="61"/>
+      <c r="F211" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="G210" s="125"/>
-      <c r="H210" s="126"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="128"/>
-      <c r="L210" s="128"/>
-      <c r="M210" s="128"/>
-      <c r="N210" s="129"/>
-      <c r="O210" s="129"/>
-      <c r="P210" s="48"/>
-    </row>
-    <row r="211" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A211" s="130"/>
-      <c r="B211" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="C211" s="131"/>
-      <c r="D211" s="131"/>
-      <c r="E211" s="131"/>
-      <c r="F211" s="131" t="s">
+      <c r="G211" s="61"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="57"/>
+      <c r="J211" s="58"/>
+      <c r="K211" s="127"/>
+      <c r="L211" s="60"/>
+      <c r="M211" s="60"/>
+      <c r="N211" s="59"/>
+      <c r="O211" s="60"/>
+      <c r="P211" s="48"/>
+    </row>
+    <row r="212" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="122"/>
+      <c r="B212" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="G211" s="131"/>
-      <c r="H211" s="126"/>
-      <c r="I211" s="126"/>
-      <c r="J211" s="127"/>
-      <c r="K211" s="132"/>
-      <c r="L211" s="129"/>
-      <c r="M211" s="129"/>
-      <c r="N211" s="128"/>
-      <c r="O211" s="129"/>
-      <c r="P211" s="48"/>
-    </row>
-    <row r="212" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="130"/>
-      <c r="B212" s="133" t="s">
-        <v>29</v>
-      </c>
-      <c r="C212" s="131" t="s">
+      <c r="D212" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="D212" s="131" t="s">
+      <c r="E212" s="61"/>
+      <c r="F212" s="61"/>
+      <c r="G212" s="61"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="134"/>
+      <c r="J212" s="58"/>
+      <c r="K212" s="127"/>
+      <c r="L212" s="139"/>
+      <c r="M212" s="139"/>
+      <c r="N212" s="139"/>
+      <c r="O212" s="60"/>
+      <c r="P212" s="48"/>
+    </row>
+    <row r="213" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="122"/>
+      <c r="B213" s="115"/>
+      <c r="C213" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="E212" s="131"/>
-      <c r="F212" s="131"/>
-      <c r="G212" s="131"/>
-      <c r="H212" s="126"/>
-      <c r="I212" s="134"/>
-      <c r="J212" s="127"/>
-      <c r="K212" s="132"/>
-      <c r="L212" s="135"/>
-      <c r="M212" s="135"/>
-      <c r="N212" s="135"/>
-      <c r="O212" s="129"/>
-      <c r="P212" s="48"/>
-    </row>
-    <row r="213" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="130"/>
-      <c r="B213" s="133"/>
-      <c r="C213" s="131" t="s">
+      <c r="D213" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="D213" s="131" t="s">
+      <c r="E213" s="62"/>
+      <c r="F213" s="61"/>
+      <c r="G213" s="61"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="135"/>
+      <c r="J213" s="58"/>
+      <c r="K213" s="127"/>
+      <c r="L213" s="139"/>
+      <c r="M213" s="139"/>
+      <c r="N213" s="139"/>
+      <c r="O213" s="60"/>
+      <c r="P213" s="48"/>
+    </row>
+    <row r="214" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="122"/>
+      <c r="B214" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="E213" s="136"/>
-      <c r="F213" s="131"/>
-      <c r="G213" s="131"/>
-      <c r="H213" s="126"/>
-      <c r="I213" s="137"/>
-      <c r="J213" s="127"/>
-      <c r="K213" s="132"/>
-      <c r="L213" s="135"/>
-      <c r="M213" s="135"/>
-      <c r="N213" s="135"/>
-      <c r="O213" s="129"/>
-      <c r="P213" s="48"/>
-    </row>
-    <row r="214" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="130"/>
-      <c r="B214" s="133" t="s">
+      <c r="C214" s="115" t="s">
+        <v>344</v>
+      </c>
+      <c r="D214" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="C214" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="D214" s="138" t="s">
+      <c r="E214" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="E214" s="139" t="s">
+      <c r="F214" s="61"/>
+      <c r="G214" s="61"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="136"/>
+      <c r="J214" s="64"/>
+      <c r="K214" s="136"/>
+      <c r="L214" s="136"/>
+      <c r="M214" s="136"/>
+      <c r="N214" s="136"/>
+      <c r="O214" s="60"/>
+      <c r="P214" s="48"/>
+    </row>
+    <row r="215" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A215" s="122"/>
+      <c r="B215" s="115"/>
+      <c r="C215" s="115"/>
+      <c r="D215" s="117"/>
+      <c r="E215" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="F214" s="131"/>
-      <c r="G214" s="131"/>
-      <c r="H214" s="126"/>
-      <c r="I214" s="140"/>
-      <c r="J214" s="141"/>
-      <c r="K214" s="140"/>
-      <c r="L214" s="140"/>
-      <c r="M214" s="140"/>
-      <c r="N214" s="140"/>
-      <c r="O214" s="129"/>
-      <c r="P214" s="48"/>
-    </row>
-    <row r="215" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A215" s="130"/>
-      <c r="B215" s="133"/>
-      <c r="C215" s="133"/>
-      <c r="D215" s="142"/>
-      <c r="E215" s="131" t="s">
+      <c r="F215" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="F215" s="131" t="s">
+      <c r="G215" s="61"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="137"/>
+      <c r="J215" s="65"/>
+      <c r="K215" s="137"/>
+      <c r="L215" s="137"/>
+      <c r="M215" s="137"/>
+      <c r="N215" s="137"/>
+      <c r="O215" s="60"/>
+      <c r="P215" s="48"/>
+    </row>
+    <row r="216" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="122"/>
+      <c r="B216" s="115"/>
+      <c r="C216" s="115"/>
+      <c r="D216" s="117"/>
+      <c r="E216" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="G215" s="131"/>
-      <c r="H215" s="126"/>
-      <c r="I215" s="143"/>
-      <c r="J215" s="144"/>
-      <c r="K215" s="143"/>
-      <c r="L215" s="143"/>
-      <c r="M215" s="143"/>
-      <c r="N215" s="143"/>
-      <c r="O215" s="129"/>
-      <c r="P215" s="48"/>
-    </row>
-    <row r="216" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="130"/>
-      <c r="B216" s="133"/>
-      <c r="C216" s="133"/>
-      <c r="D216" s="142"/>
-      <c r="E216" s="131" t="s">
+      <c r="F216" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="F216" s="131" t="s">
+      <c r="G216" s="61"/>
+      <c r="H216" s="57"/>
+      <c r="I216" s="137"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="137"/>
+      <c r="L216" s="137"/>
+      <c r="M216" s="137"/>
+      <c r="N216" s="137"/>
+      <c r="O216" s="60"/>
+      <c r="P216" s="48"/>
+    </row>
+    <row r="217" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A217" s="122"/>
+      <c r="B217" s="115"/>
+      <c r="C217" s="115"/>
+      <c r="D217" s="118"/>
+      <c r="E217" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="G216" s="131"/>
-      <c r="H216" s="126"/>
-      <c r="I216" s="143"/>
-      <c r="J216" s="144"/>
-      <c r="K216" s="143"/>
-      <c r="L216" s="143"/>
-      <c r="M216" s="143"/>
-      <c r="N216" s="143"/>
-      <c r="O216" s="129"/>
-      <c r="P216" s="48"/>
-    </row>
-    <row r="217" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="130"/>
-      <c r="B217" s="133"/>
-      <c r="C217" s="133"/>
-      <c r="D217" s="145"/>
-      <c r="E217" s="131" t="s">
+      <c r="F217" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="F217" s="131" t="s">
+      <c r="G217" s="61"/>
+      <c r="H217" s="57"/>
+      <c r="I217" s="137"/>
+      <c r="J217" s="65"/>
+      <c r="K217" s="137"/>
+      <c r="L217" s="137"/>
+      <c r="M217" s="137"/>
+      <c r="N217" s="137"/>
+      <c r="O217" s="60"/>
+      <c r="P217" s="48"/>
+    </row>
+    <row r="218" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A218" s="122"/>
+      <c r="B218" s="115"/>
+      <c r="C218" s="115"/>
+      <c r="D218" s="119" t="s">
         <v>353</v>
       </c>
-      <c r="G217" s="131"/>
-      <c r="H217" s="126"/>
-      <c r="I217" s="143"/>
-      <c r="J217" s="144"/>
-      <c r="K217" s="143"/>
-      <c r="L217" s="143"/>
-      <c r="M217" s="143"/>
-      <c r="N217" s="143"/>
-      <c r="O217" s="129"/>
-      <c r="P217" s="48"/>
-    </row>
-    <row r="218" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="130"/>
-      <c r="B218" s="133"/>
-      <c r="C218" s="133"/>
-      <c r="D218" s="146" t="s">
+      <c r="E218" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="E218" s="131" t="s">
+      <c r="F218" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="F218" s="136" t="s">
+      <c r="G218" s="61"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="137"/>
+      <c r="J218" s="65"/>
+      <c r="K218" s="137"/>
+      <c r="L218" s="137"/>
+      <c r="M218" s="137"/>
+      <c r="N218" s="137"/>
+      <c r="O218" s="60"/>
+      <c r="P218" s="48"/>
+    </row>
+    <row r="219" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="122"/>
+      <c r="B219" s="115"/>
+      <c r="C219" s="115"/>
+      <c r="D219" s="117"/>
+      <c r="E219" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="F219" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="G218" s="131"/>
-      <c r="H218" s="126"/>
-      <c r="I218" s="143"/>
-      <c r="J218" s="144"/>
-      <c r="K218" s="143"/>
-      <c r="L218" s="143"/>
-      <c r="M218" s="143"/>
-      <c r="N218" s="143"/>
-      <c r="O218" s="129"/>
-      <c r="P218" s="48"/>
-    </row>
-    <row r="219" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="130"/>
-      <c r="B219" s="133"/>
-      <c r="C219" s="133"/>
-      <c r="D219" s="142"/>
-      <c r="E219" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="F219" s="131" t="s">
+      <c r="G219" s="61"/>
+      <c r="H219" s="57"/>
+      <c r="I219" s="137"/>
+      <c r="J219" s="65"/>
+      <c r="K219" s="137"/>
+      <c r="L219" s="137"/>
+      <c r="M219" s="137"/>
+      <c r="N219" s="137"/>
+      <c r="O219" s="60"/>
+      <c r="P219" s="48"/>
+    </row>
+    <row r="220" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A220" s="122"/>
+      <c r="B220" s="115"/>
+      <c r="C220" s="115"/>
+      <c r="D220" s="117"/>
+      <c r="E220" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="G219" s="131"/>
-      <c r="H219" s="126"/>
-      <c r="I219" s="143"/>
-      <c r="J219" s="144"/>
-      <c r="K219" s="143"/>
-      <c r="L219" s="143"/>
-      <c r="M219" s="143"/>
-      <c r="N219" s="143"/>
-      <c r="O219" s="129"/>
-      <c r="P219" s="48"/>
-    </row>
-    <row r="220" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A220" s="130"/>
-      <c r="B220" s="133"/>
-      <c r="C220" s="133"/>
-      <c r="D220" s="142"/>
-      <c r="E220" s="131" t="s">
+      <c r="F220" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G220" s="61"/>
+      <c r="H220" s="57"/>
+      <c r="I220" s="137"/>
+      <c r="J220" s="65"/>
+      <c r="K220" s="137"/>
+      <c r="L220" s="137"/>
+      <c r="M220" s="137"/>
+      <c r="N220" s="137"/>
+      <c r="O220" s="60"/>
+      <c r="P220" s="48"/>
+    </row>
+    <row r="221" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A221" s="122"/>
+      <c r="B221" s="115"/>
+      <c r="C221" s="115"/>
+      <c r="D221" s="118"/>
+      <c r="E221" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F221" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="F220" s="131" t="s">
-        <v>349</v>
-      </c>
-      <c r="G220" s="131"/>
-      <c r="H220" s="126"/>
-      <c r="I220" s="143"/>
-      <c r="J220" s="144"/>
-      <c r="K220" s="143"/>
-      <c r="L220" s="143"/>
-      <c r="M220" s="143"/>
-      <c r="N220" s="143"/>
-      <c r="O220" s="129"/>
-      <c r="P220" s="48"/>
-    </row>
-    <row r="221" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="130"/>
-      <c r="B221" s="133"/>
-      <c r="C221" s="133"/>
-      <c r="D221" s="145"/>
-      <c r="E221" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="F221" s="131" t="s">
+      <c r="G221" s="61"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="138"/>
+      <c r="J221" s="65"/>
+      <c r="K221" s="138"/>
+      <c r="L221" s="138"/>
+      <c r="M221" s="138"/>
+      <c r="N221" s="138"/>
+      <c r="O221" s="60"/>
+      <c r="P221" s="49"/>
+    </row>
+    <row r="222" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A222" s="122"/>
+      <c r="B222" s="115"/>
+      <c r="C222" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="G221" s="131"/>
-      <c r="H221" s="126"/>
-      <c r="I221" s="147"/>
-      <c r="J221" s="144"/>
-      <c r="K221" s="147"/>
-      <c r="L221" s="147"/>
-      <c r="M221" s="147"/>
-      <c r="N221" s="147"/>
-      <c r="O221" s="129"/>
-      <c r="P221" s="49"/>
-    </row>
-    <row r="222" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A222" s="130"/>
-      <c r="B222" s="133"/>
-      <c r="C222" s="138" t="s">
+      <c r="D222" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="D222" s="131" t="s">
+      <c r="E222" s="61"/>
+      <c r="F222" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="E222" s="131"/>
-      <c r="F222" s="131" t="s">
+      <c r="G222" s="61"/>
+      <c r="H222" s="57"/>
+      <c r="I222" s="136"/>
+      <c r="J222" s="65"/>
+      <c r="K222" s="136"/>
+      <c r="L222" s="136"/>
+      <c r="M222" s="136"/>
+      <c r="N222" s="136"/>
+      <c r="O222" s="60"/>
+      <c r="P222" s="49"/>
+    </row>
+    <row r="223" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="122"/>
+      <c r="B223" s="115"/>
+      <c r="C223" s="118"/>
+      <c r="D223" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="G222" s="131"/>
-      <c r="H222" s="126"/>
-      <c r="I222" s="140"/>
-      <c r="J222" s="144"/>
-      <c r="K222" s="140"/>
-      <c r="L222" s="140"/>
-      <c r="M222" s="140"/>
-      <c r="N222" s="140"/>
-      <c r="O222" s="129"/>
-      <c r="P222" s="49"/>
-    </row>
-    <row r="223" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="130"/>
-      <c r="B223" s="133"/>
-      <c r="C223" s="145"/>
-      <c r="D223" s="131" t="s">
+      <c r="E223" s="61"/>
+      <c r="F223" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="E223" s="131"/>
-      <c r="F223" s="131" t="s">
+      <c r="G223" s="61"/>
+      <c r="H223" s="57"/>
+      <c r="I223" s="137"/>
+      <c r="J223" s="65"/>
+      <c r="K223" s="137"/>
+      <c r="L223" s="137"/>
+      <c r="M223" s="137"/>
+      <c r="N223" s="137"/>
+      <c r="O223" s="60"/>
+      <c r="P223" s="49"/>
+    </row>
+    <row r="224" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A224" s="122"/>
+      <c r="B224" s="115"/>
+      <c r="C224" s="115" t="s">
         <v>364</v>
       </c>
-      <c r="G223" s="131"/>
-      <c r="H223" s="126"/>
-      <c r="I223" s="143"/>
-      <c r="J223" s="144"/>
-      <c r="K223" s="143"/>
-      <c r="L223" s="143"/>
-      <c r="M223" s="143"/>
-      <c r="N223" s="143"/>
-      <c r="O223" s="129"/>
-      <c r="P223" s="49"/>
-    </row>
-    <row r="224" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="130"/>
-      <c r="B224" s="133"/>
-      <c r="C224" s="133" t="s">
+      <c r="D224" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="D224" s="131" t="s">
+      <c r="E224" s="61"/>
+      <c r="F224" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="E224" s="131"/>
-      <c r="F224" s="136" t="s">
+      <c r="G224" s="61"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="137"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="137"/>
+      <c r="L224" s="137"/>
+      <c r="M224" s="137"/>
+      <c r="N224" s="137"/>
+      <c r="O224" s="60"/>
+      <c r="P224" s="49"/>
+    </row>
+    <row r="225" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="122"/>
+      <c r="B225" s="115"/>
+      <c r="C225" s="115"/>
+      <c r="D225" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="G224" s="131"/>
-      <c r="H224" s="126"/>
-      <c r="I224" s="143"/>
-      <c r="J224" s="144"/>
-      <c r="K224" s="143"/>
-      <c r="L224" s="143"/>
-      <c r="M224" s="143"/>
-      <c r="N224" s="143"/>
-      <c r="O224" s="129"/>
-      <c r="P224" s="49"/>
-    </row>
-    <row r="225" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="130"/>
-      <c r="B225" s="133"/>
-      <c r="C225" s="133"/>
-      <c r="D225" s="131" t="s">
+      <c r="E225" s="63"/>
+      <c r="F225" s="61"/>
+      <c r="G225" s="61"/>
+      <c r="H225" s="57"/>
+      <c r="I225" s="137"/>
+      <c r="J225" s="65"/>
+      <c r="K225" s="137"/>
+      <c r="L225" s="137"/>
+      <c r="M225" s="137"/>
+      <c r="N225" s="137"/>
+      <c r="O225" s="60"/>
+      <c r="P225" s="49"/>
+    </row>
+    <row r="226" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="122"/>
+      <c r="B226" s="115"/>
+      <c r="C226" s="115"/>
+      <c r="D226" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="E225" s="139"/>
-      <c r="F225" s="131"/>
-      <c r="G225" s="131"/>
-      <c r="H225" s="126"/>
-      <c r="I225" s="143"/>
-      <c r="J225" s="144"/>
-      <c r="K225" s="143"/>
-      <c r="L225" s="143"/>
-      <c r="M225" s="143"/>
-      <c r="N225" s="143"/>
-      <c r="O225" s="129"/>
-      <c r="P225" s="49"/>
-    </row>
-    <row r="226" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="130"/>
-      <c r="B226" s="133"/>
-      <c r="C226" s="133"/>
-      <c r="D226" s="131" t="s">
+      <c r="E226" s="61"/>
+      <c r="F226" s="61"/>
+      <c r="G226" s="61"/>
+      <c r="H226" s="57"/>
+      <c r="I226" s="138"/>
+      <c r="J226" s="66"/>
+      <c r="K226" s="138"/>
+      <c r="L226" s="138"/>
+      <c r="M226" s="138"/>
+      <c r="N226" s="138"/>
+      <c r="O226" s="60"/>
+      <c r="P226" s="49"/>
+    </row>
+    <row r="227" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A227" s="122"/>
+      <c r="B227" s="116" t="s">
         <v>369</v>
       </c>
-      <c r="E226" s="131"/>
-      <c r="F226" s="131"/>
-      <c r="G226" s="131"/>
-      <c r="H226" s="126"/>
-      <c r="I226" s="147"/>
-      <c r="J226" s="148"/>
-      <c r="K226" s="147"/>
-      <c r="L226" s="147"/>
-      <c r="M226" s="147"/>
-      <c r="N226" s="147"/>
-      <c r="O226" s="129"/>
-      <c r="P226" s="49"/>
-    </row>
-    <row r="227" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A227" s="130"/>
-      <c r="B227" s="138" t="s">
+      <c r="C227" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="C227" s="131" t="s">
+      <c r="D227" s="61"/>
+      <c r="E227" s="61"/>
+      <c r="F227" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="D227" s="131"/>
-      <c r="E227" s="131"/>
-      <c r="F227" s="131" t="s">
+      <c r="G227" s="61"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="127"/>
+      <c r="J227" s="64"/>
+      <c r="K227" s="136"/>
+      <c r="L227" s="127"/>
+      <c r="M227" s="127"/>
+      <c r="N227" s="127"/>
+      <c r="O227" s="60"/>
+      <c r="P227" s="140" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="122"/>
+      <c r="B228" s="120"/>
+      <c r="C228" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="G227" s="131"/>
-      <c r="H227" s="126"/>
-      <c r="I227" s="132"/>
-      <c r="J227" s="141"/>
-      <c r="K227" s="140"/>
-      <c r="L227" s="132"/>
-      <c r="M227" s="132"/>
-      <c r="N227" s="132"/>
-      <c r="O227" s="129"/>
-      <c r="P227" s="53" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="130"/>
-      <c r="B228" s="149"/>
-      <c r="C228" s="131" t="s">
+      <c r="D228" s="61"/>
+      <c r="E228" s="61"/>
+      <c r="F228" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="D228" s="131"/>
-      <c r="E228" s="131"/>
-      <c r="F228" s="131" t="s">
+      <c r="G228" s="61"/>
+      <c r="H228" s="57"/>
+      <c r="I228" s="127"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="137"/>
+      <c r="L228" s="127"/>
+      <c r="M228" s="127"/>
+      <c r="N228" s="127"/>
+      <c r="O228" s="60"/>
+      <c r="P228" s="141"/>
+    </row>
+    <row r="229" spans="1:16" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.25">
+      <c r="A229" s="122"/>
+      <c r="B229" s="117"/>
+      <c r="C229" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="G228" s="131"/>
-      <c r="H228" s="126"/>
-      <c r="I228" s="132"/>
-      <c r="J228" s="144"/>
-      <c r="K228" s="143"/>
-      <c r="L228" s="132"/>
-      <c r="M228" s="132"/>
-      <c r="N228" s="132"/>
-      <c r="O228" s="129"/>
-      <c r="P228" s="54"/>
-    </row>
-    <row r="229" spans="1:16" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A229" s="130"/>
-      <c r="B229" s="142"/>
-      <c r="C229" s="138" t="s">
+      <c r="D229" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="D229" s="131" t="s">
+      <c r="E229" s="61"/>
+      <c r="F229" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="E229" s="131"/>
-      <c r="F229" s="131" t="s">
+      <c r="G229" s="61"/>
+      <c r="H229" s="57"/>
+      <c r="I229" s="127"/>
+      <c r="J229" s="65"/>
+      <c r="K229" s="137"/>
+      <c r="L229" s="127"/>
+      <c r="M229" s="127"/>
+      <c r="N229" s="127"/>
+      <c r="O229" s="60"/>
+      <c r="P229" s="141"/>
+    </row>
+    <row r="230" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A230" s="122"/>
+      <c r="B230" s="117"/>
+      <c r="C230" s="118"/>
+      <c r="D230" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="G229" s="131"/>
-      <c r="H229" s="126"/>
-      <c r="I229" s="132"/>
-      <c r="J229" s="144"/>
-      <c r="K229" s="143"/>
-      <c r="L229" s="132"/>
-      <c r="M229" s="132"/>
-      <c r="N229" s="132"/>
-      <c r="O229" s="129"/>
-      <c r="P229" s="54"/>
-    </row>
-    <row r="230" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A230" s="130"/>
-      <c r="B230" s="142"/>
-      <c r="C230" s="145"/>
-      <c r="D230" s="131" t="s">
+      <c r="E230" s="61"/>
+      <c r="F230" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="E230" s="131"/>
-      <c r="F230" s="131" t="s">
+      <c r="G230" s="61"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="127"/>
+      <c r="J230" s="65"/>
+      <c r="K230" s="137"/>
+      <c r="L230" s="127"/>
+      <c r="M230" s="127"/>
+      <c r="N230" s="127"/>
+      <c r="O230" s="60"/>
+      <c r="P230" s="141"/>
+    </row>
+    <row r="231" spans="1:16" s="17" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
+      <c r="A231" s="122"/>
+      <c r="B231" s="117"/>
+      <c r="C231" s="115" t="s">
         <v>379</v>
       </c>
-      <c r="G230" s="131"/>
-      <c r="H230" s="126"/>
-      <c r="I230" s="132"/>
-      <c r="J230" s="144"/>
-      <c r="K230" s="143"/>
-      <c r="L230" s="132"/>
-      <c r="M230" s="132"/>
-      <c r="N230" s="132"/>
-      <c r="O230" s="129"/>
-      <c r="P230" s="54"/>
-    </row>
-    <row r="231" spans="1:16" s="17" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A231" s="130"/>
-      <c r="B231" s="142"/>
-      <c r="C231" s="133" t="s">
+      <c r="D231" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="D231" s="131" t="s">
+      <c r="E231" s="61"/>
+      <c r="F231" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="E231" s="131"/>
-      <c r="F231" s="136" t="s">
+      <c r="G231" s="61"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="127"/>
+      <c r="J231" s="65"/>
+      <c r="K231" s="137"/>
+      <c r="L231" s="127"/>
+      <c r="M231" s="127"/>
+      <c r="N231" s="127"/>
+      <c r="O231" s="60"/>
+      <c r="P231" s="141"/>
+    </row>
+    <row r="232" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="122"/>
+      <c r="B232" s="117"/>
+      <c r="C232" s="115"/>
+      <c r="D232" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="G231" s="131"/>
-      <c r="H231" s="126"/>
-      <c r="I231" s="132"/>
-      <c r="J231" s="144"/>
-      <c r="K231" s="143"/>
-      <c r="L231" s="132"/>
-      <c r="M231" s="132"/>
-      <c r="N231" s="132"/>
-      <c r="O231" s="129"/>
-      <c r="P231" s="54"/>
-    </row>
-    <row r="232" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="130"/>
-      <c r="B232" s="142"/>
-      <c r="C232" s="133"/>
-      <c r="D232" s="131" t="s">
+      <c r="E232" s="61"/>
+      <c r="F232" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E232" s="131"/>
-      <c r="F232" s="131" t="s">
+      <c r="G232" s="61"/>
+      <c r="H232" s="57"/>
+      <c r="I232" s="127"/>
+      <c r="J232" s="65"/>
+      <c r="K232" s="137"/>
+      <c r="L232" s="127"/>
+      <c r="M232" s="127"/>
+      <c r="N232" s="127"/>
+      <c r="O232" s="60"/>
+      <c r="P232" s="141"/>
+    </row>
+    <row r="233" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="122"/>
+      <c r="B233" s="117"/>
+      <c r="C233" s="115"/>
+      <c r="D233" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="G232" s="131"/>
-      <c r="H232" s="126"/>
-      <c r="I232" s="132"/>
-      <c r="J232" s="144"/>
-      <c r="K232" s="143"/>
-      <c r="L232" s="132"/>
-      <c r="M232" s="132"/>
-      <c r="N232" s="132"/>
-      <c r="O232" s="129"/>
-      <c r="P232" s="54"/>
-    </row>
-    <row r="233" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="130"/>
-      <c r="B233" s="142"/>
-      <c r="C233" s="133"/>
-      <c r="D233" s="131" t="s">
+      <c r="E233" s="61"/>
+      <c r="F233" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="E233" s="131"/>
-      <c r="F233" s="131" t="s">
+      <c r="G233" s="61"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="127"/>
+      <c r="J233" s="65"/>
+      <c r="K233" s="137"/>
+      <c r="L233" s="127"/>
+      <c r="M233" s="127"/>
+      <c r="N233" s="127"/>
+      <c r="O233" s="60"/>
+      <c r="P233" s="141"/>
+    </row>
+    <row r="234" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A234" s="122"/>
+      <c r="B234" s="118"/>
+      <c r="C234" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="G233" s="131"/>
-      <c r="H233" s="126"/>
-      <c r="I233" s="132"/>
-      <c r="J233" s="144"/>
-      <c r="K233" s="143"/>
-      <c r="L233" s="132"/>
-      <c r="M233" s="132"/>
-      <c r="N233" s="132"/>
-      <c r="O233" s="129"/>
-      <c r="P233" s="54"/>
-    </row>
-    <row r="234" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A234" s="130"/>
-      <c r="B234" s="145"/>
-      <c r="C234" s="131" t="s">
+      <c r="D234" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="D234" s="131" t="s">
+      <c r="E234" s="61"/>
+      <c r="F234" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="E234" s="131"/>
-      <c r="F234" s="131" t="s">
+      <c r="G234" s="61"/>
+      <c r="H234" s="57"/>
+      <c r="I234" s="127"/>
+      <c r="J234" s="65"/>
+      <c r="K234" s="137"/>
+      <c r="L234" s="127"/>
+      <c r="M234" s="127"/>
+      <c r="N234" s="127"/>
+      <c r="O234" s="60"/>
+      <c r="P234" s="141"/>
+    </row>
+    <row r="235" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="122"/>
+      <c r="B235" s="119" t="s">
+        <v>445</v>
+      </c>
+      <c r="C235" s="116" t="s">
         <v>389</v>
       </c>
-      <c r="G234" s="131"/>
-      <c r="H234" s="126"/>
-      <c r="I234" s="132"/>
-      <c r="J234" s="144"/>
-      <c r="K234" s="143"/>
-      <c r="L234" s="132"/>
-      <c r="M234" s="132"/>
-      <c r="N234" s="132"/>
-      <c r="O234" s="129"/>
-      <c r="P234" s="54"/>
-    </row>
-    <row r="235" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="130"/>
-      <c r="B235" s="146" t="s">
+      <c r="D235" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="E235" s="61"/>
+      <c r="F235" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="G235" s="61"/>
+      <c r="H235" s="57"/>
+      <c r="I235" s="127"/>
+      <c r="J235" s="65"/>
+      <c r="K235" s="137"/>
+      <c r="L235" s="127"/>
+      <c r="M235" s="127"/>
+      <c r="N235" s="127"/>
+      <c r="O235" s="60"/>
+      <c r="P235" s="49"/>
+    </row>
+    <row r="236" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="122"/>
+      <c r="B236" s="118"/>
+      <c r="C236" s="118"/>
+      <c r="D236" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="E236" s="61"/>
+      <c r="F236" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="G236" s="61"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="127"/>
+      <c r="J236" s="66"/>
+      <c r="K236" s="138"/>
+      <c r="L236" s="127"/>
+      <c r="M236" s="127"/>
+      <c r="N236" s="127"/>
+      <c r="O236" s="60"/>
+      <c r="P236" s="49"/>
+    </row>
+    <row r="237" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="123"/>
+      <c r="B237" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C235" s="138" t="s">
-        <v>390</v>
-      </c>
-      <c r="D235" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="E235" s="131"/>
-      <c r="F235" s="131" t="s">
-        <v>392</v>
-      </c>
-      <c r="G235" s="131"/>
-      <c r="H235" s="126"/>
-      <c r="I235" s="132"/>
-      <c r="J235" s="144"/>
-      <c r="K235" s="143"/>
-      <c r="L235" s="132"/>
-      <c r="M235" s="132"/>
-      <c r="N235" s="132"/>
-      <c r="O235" s="129"/>
-      <c r="P235" s="49"/>
-    </row>
-    <row r="236" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="130"/>
-      <c r="B236" s="145"/>
-      <c r="C236" s="145"/>
-      <c r="D236" s="131" t="s">
-        <v>393</v>
-      </c>
-      <c r="E236" s="131"/>
-      <c r="F236" s="131" t="s">
+      <c r="C237" s="68"/>
+      <c r="D237" s="61"/>
+      <c r="E237" s="61"/>
+      <c r="F237" s="61"/>
+      <c r="G237" s="61"/>
+      <c r="H237" s="57"/>
+      <c r="I237" s="60"/>
+      <c r="J237" s="65"/>
+      <c r="K237" s="69"/>
+      <c r="L237" s="60"/>
+      <c r="M237" s="60"/>
+      <c r="N237" s="60"/>
+      <c r="O237" s="60"/>
+      <c r="P237" s="52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A238" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="G236" s="131"/>
-      <c r="H236" s="126"/>
-      <c r="I236" s="132"/>
-      <c r="J236" s="148"/>
-      <c r="K236" s="147"/>
-      <c r="L236" s="132"/>
-      <c r="M236" s="132"/>
-      <c r="N236" s="132"/>
-      <c r="O236" s="129"/>
-      <c r="P236" s="49"/>
-    </row>
-    <row r="237" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="150"/>
-      <c r="B237" s="151" t="s">
-        <v>447</v>
-      </c>
-      <c r="C237" s="152"/>
-      <c r="D237" s="131"/>
-      <c r="E237" s="131"/>
-      <c r="F237" s="131"/>
-      <c r="G237" s="131"/>
-      <c r="H237" s="126"/>
-      <c r="I237" s="129"/>
-      <c r="J237" s="144"/>
-      <c r="K237" s="153"/>
-      <c r="L237" s="129"/>
-      <c r="M237" s="129"/>
-      <c r="N237" s="129"/>
-      <c r="O237" s="129"/>
-      <c r="P237" s="52" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A238" s="73" t="s">
-        <v>395</v>
-      </c>
       <c r="B238" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C238" s="27" t="s">
         <v>337</v>
-      </c>
-      <c r="C238" s="27" t="s">
-        <v>338</v>
       </c>
       <c r="D238" s="27"/>
       <c r="E238" s="27"/>
       <c r="F238" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G238" s="27"/>
       <c r="H238" s="22"/>
@@ -9116,9 +9116,9 @@
       <c r="P238" s="49"/>
     </row>
     <row r="239" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="74"/>
+      <c r="A239" s="108"/>
       <c r="B239" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C239" s="26" t="s">
         <v>207</v>
@@ -9142,7 +9142,7 @@
       <c r="P239" s="49"/>
     </row>
     <row r="240" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="74"/>
+      <c r="A240" s="108"/>
       <c r="B240" s="26" t="s">
         <v>210</v>
       </c>
@@ -9168,15 +9168,15 @@
       <c r="P240" s="49"/>
     </row>
     <row r="241" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="74"/>
+      <c r="A241" s="108"/>
       <c r="B241" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C241" s="26"/>
       <c r="D241" s="26"/>
       <c r="E241" s="26"/>
       <c r="F241" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G241" s="26"/>
       <c r="H241" s="22"/>
@@ -9192,17 +9192,17 @@
       <c r="P241" s="49"/>
     </row>
     <row r="242" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="74"/>
-      <c r="B242" s="76" t="s">
+      <c r="A242" s="108"/>
+      <c r="B242" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="C242" s="26" t="s">
         <v>399</v>
-      </c>
-      <c r="C242" s="26" t="s">
-        <v>400</v>
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G242" s="26"/>
       <c r="H242" s="22"/>
@@ -9211,22 +9211,22 @@
       <c r="K242" s="3"/>
       <c r="L242" s="32"/>
       <c r="M242" s="32"/>
-      <c r="N242" s="67">
+      <c r="N242" s="128">
         <v>5</v>
       </c>
       <c r="O242" s="3"/>
       <c r="P242" s="49"/>
     </row>
     <row r="243" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A243" s="74"/>
-      <c r="B243" s="77"/>
+      <c r="A243" s="108"/>
+      <c r="B243" s="110"/>
       <c r="C243" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="F243" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G243" s="26"/>
       <c r="H243" s="22"/>
@@ -9235,20 +9235,20 @@
       <c r="K243" s="3"/>
       <c r="L243" s="30"/>
       <c r="M243" s="30"/>
-      <c r="N243" s="68"/>
+      <c r="N243" s="129"/>
       <c r="O243" s="3"/>
       <c r="P243" s="49"/>
     </row>
     <row r="244" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="74"/>
-      <c r="B244" s="77"/>
+      <c r="A244" s="108"/>
+      <c r="B244" s="110"/>
       <c r="C244" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G244" s="26"/>
       <c r="H244" s="22"/>
@@ -9257,20 +9257,20 @@
       <c r="K244" s="3"/>
       <c r="L244" s="30"/>
       <c r="M244" s="30"/>
-      <c r="N244" s="68"/>
+      <c r="N244" s="129"/>
       <c r="O244" s="3"/>
       <c r="P244" s="49"/>
     </row>
     <row r="245" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="74"/>
-      <c r="B245" s="77"/>
+      <c r="A245" s="108"/>
+      <c r="B245" s="110"/>
       <c r="C245" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="F245" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G245" s="26"/>
       <c r="H245" s="22"/>
@@ -9279,20 +9279,20 @@
       <c r="K245" s="3"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
-      <c r="N245" s="68"/>
+      <c r="N245" s="129"/>
       <c r="O245" s="3"/>
       <c r="P245" s="49"/>
     </row>
     <row r="246" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="74"/>
-      <c r="B246" s="77"/>
+      <c r="A246" s="108"/>
+      <c r="B246" s="110"/>
       <c r="C246" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G246" s="26"/>
       <c r="H246" s="22"/>
@@ -9301,20 +9301,20 @@
       <c r="K246" s="3"/>
       <c r="L246" s="30"/>
       <c r="M246" s="30"/>
-      <c r="N246" s="68"/>
+      <c r="N246" s="129"/>
       <c r="O246" s="3"/>
       <c r="P246" s="49"/>
     </row>
     <row r="247" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A247" s="74"/>
-      <c r="B247" s="77"/>
+      <c r="A247" s="108"/>
+      <c r="B247" s="110"/>
       <c r="C247" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G247" s="26"/>
       <c r="H247" s="22"/>
@@ -9323,20 +9323,20 @@
       <c r="K247" s="3"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
-      <c r="N247" s="68"/>
+      <c r="N247" s="129"/>
       <c r="O247" s="3"/>
       <c r="P247" s="49"/>
     </row>
     <row r="248" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="74"/>
-      <c r="B248" s="78"/>
+      <c r="A248" s="108"/>
+      <c r="B248" s="111"/>
       <c r="C248" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D248" s="26"/>
       <c r="E248" s="26"/>
       <c r="F248" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G248" s="26"/>
       <c r="H248" s="22"/>
@@ -9345,24 +9345,24 @@
       <c r="K248" s="3"/>
       <c r="L248" s="31"/>
       <c r="M248" s="31"/>
-      <c r="N248" s="69"/>
+      <c r="N248" s="130"/>
       <c r="O248" s="3"/>
       <c r="P248" s="49"/>
     </row>
     <row r="249" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="74"/>
-      <c r="B249" s="79" t="s">
+      <c r="A249" s="108"/>
+      <c r="B249" s="112" t="s">
+        <v>413</v>
+      </c>
+      <c r="C249" s="28" t="s">
         <v>414</v>
-      </c>
-      <c r="C249" s="28" t="s">
-        <v>415</v>
       </c>
       <c r="D249" s="28" t="s">
         <v>276</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G249" s="28"/>
       <c r="H249" s="22"/>
@@ -9371,24 +9371,24 @@
       <c r="K249" s="3"/>
       <c r="L249" s="32"/>
       <c r="M249" s="32"/>
-      <c r="N249" s="67">
+      <c r="N249" s="128">
         <v>1.25</v>
       </c>
       <c r="O249" s="3"/>
       <c r="P249" s="49"/>
     </row>
     <row r="250" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="74"/>
-      <c r="B250" s="79"/>
-      <c r="C250" s="79" t="s">
-        <v>417</v>
+      <c r="A250" s="108"/>
+      <c r="B250" s="112"/>
+      <c r="C250" s="112" t="s">
+        <v>416</v>
       </c>
       <c r="D250" s="28" t="s">
         <v>275</v>
       </c>
       <c r="E250" s="28"/>
       <c r="F250" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G250" s="28"/>
       <c r="H250" s="22"/>
@@ -9397,14 +9397,14 @@
       <c r="K250" s="3"/>
       <c r="L250" s="30"/>
       <c r="M250" s="30"/>
-      <c r="N250" s="68"/>
+      <c r="N250" s="129"/>
       <c r="O250" s="3"/>
       <c r="P250" s="49"/>
     </row>
     <row r="251" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="74"/>
-      <c r="B251" s="79"/>
-      <c r="C251" s="79"/>
+      <c r="A251" s="108"/>
+      <c r="B251" s="112"/>
+      <c r="C251" s="112"/>
       <c r="D251" s="28" t="s">
         <v>276</v>
       </c>
@@ -9417,14 +9417,14 @@
       <c r="K251" s="3"/>
       <c r="L251" s="30"/>
       <c r="M251" s="30"/>
-      <c r="N251" s="68"/>
+      <c r="N251" s="129"/>
       <c r="O251" s="3"/>
       <c r="P251" s="49"/>
     </row>
     <row r="252" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="74"/>
-      <c r="B252" s="79"/>
-      <c r="C252" s="79"/>
+      <c r="A252" s="108"/>
+      <c r="B252" s="112"/>
+      <c r="C252" s="112"/>
       <c r="D252" s="28" t="s">
         <v>277</v>
       </c>
@@ -9437,22 +9437,22 @@
       <c r="K252" s="3"/>
       <c r="L252" s="31"/>
       <c r="M252" s="31"/>
-      <c r="N252" s="69"/>
+      <c r="N252" s="130"/>
       <c r="O252" s="3"/>
       <c r="P252" s="49"/>
     </row>
     <row r="253" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A253" s="74"/>
-      <c r="B253" s="76" t="s">
+      <c r="A253" s="108"/>
+      <c r="B253" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C253" s="26" t="s">
         <v>419</v>
-      </c>
-      <c r="C253" s="26" t="s">
-        <v>420</v>
       </c>
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G253" s="26"/>
       <c r="H253" s="22"/>
@@ -9461,22 +9461,22 @@
       <c r="K253" s="3"/>
       <c r="L253" s="32"/>
       <c r="M253" s="32"/>
-      <c r="N253" s="67">
+      <c r="N253" s="128">
         <v>2.5</v>
       </c>
       <c r="O253" s="3"/>
       <c r="P253" s="49"/>
     </row>
     <row r="254" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="74"/>
-      <c r="B254" s="77"/>
+      <c r="A254" s="108"/>
+      <c r="B254" s="110"/>
       <c r="C254" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="26"/>
       <c r="F254" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G254" s="26"/>
       <c r="H254" s="22"/>
@@ -9485,15 +9485,15 @@
       <c r="K254" s="3"/>
       <c r="L254" s="30"/>
       <c r="M254" s="30"/>
-      <c r="N254" s="68"/>
+      <c r="N254" s="129"/>
       <c r="O254" s="3"/>
       <c r="P254" s="49"/>
     </row>
     <row r="255" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="74"/>
-      <c r="B255" s="77"/>
+      <c r="A255" s="108"/>
+      <c r="B255" s="110"/>
       <c r="C255" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
@@ -9505,15 +9505,15 @@
       <c r="K255" s="3"/>
       <c r="L255" s="30"/>
       <c r="M255" s="30"/>
-      <c r="N255" s="68"/>
+      <c r="N255" s="129"/>
       <c r="O255" s="3"/>
       <c r="P255" s="49"/>
     </row>
     <row r="256" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="74"/>
-      <c r="B256" s="77"/>
+      <c r="A256" s="108"/>
+      <c r="B256" s="110"/>
       <c r="C256" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
@@ -9525,15 +9525,15 @@
       <c r="K256" s="3"/>
       <c r="L256" s="30"/>
       <c r="M256" s="30"/>
-      <c r="N256" s="68"/>
+      <c r="N256" s="129"/>
       <c r="O256" s="3"/>
       <c r="P256" s="49"/>
     </row>
     <row r="257" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="75"/>
-      <c r="B257" s="78"/>
+      <c r="A257" s="109"/>
+      <c r="B257" s="111"/>
       <c r="C257" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D257" s="26"/>
       <c r="E257" s="26"/>
@@ -9545,7 +9545,7 @@
       <c r="K257" s="3"/>
       <c r="L257" s="31"/>
       <c r="M257" s="31"/>
-      <c r="N257" s="69"/>
+      <c r="N257" s="130"/>
       <c r="O257" s="3"/>
       <c r="P257" s="49"/>
     </row>
@@ -9917,13 +9917,13 @@
         <f t="shared" si="2"/>
         <v>8315.5992857142846</v>
       </c>
-      <c r="K271" s="106">
+      <c r="K271" s="85">
         <f>N269*1320/7+K269*1320/7</f>
         <v>37242.857142857145</v>
       </c>
-      <c r="L271" s="107"/>
-      <c r="M271" s="107"/>
-      <c r="N271" s="108"/>
+      <c r="L271" s="86"/>
+      <c r="M271" s="86"/>
+      <c r="N271" s="87"/>
       <c r="O271" s="23">
         <f>O269*1320/7</f>
         <v>2793.2142857142858</v>
@@ -9939,59 +9939,204 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
-      <c r="H272" s="97">
+      <c r="H272" s="76">
         <f>SUM(H270:O271)</f>
         <v>206834.17071428572</v>
       </c>
-      <c r="I272" s="97"/>
-      <c r="J272" s="97"/>
-      <c r="K272" s="97"/>
-      <c r="L272" s="97"/>
-      <c r="M272" s="97"/>
-      <c r="N272" s="97"/>
-      <c r="O272" s="97"/>
+      <c r="I272" s="76"/>
+      <c r="J272" s="76"/>
+      <c r="K272" s="76"/>
+      <c r="L272" s="76"/>
+      <c r="M272" s="76"/>
+      <c r="N272" s="76"/>
+      <c r="O272" s="76"/>
     </row>
     <row r="273" spans="1:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="101" t="s">
+      <c r="A273" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B273" s="102"/>
-      <c r="C273" s="102"/>
-      <c r="D273" s="102"/>
-      <c r="E273" s="102"/>
-      <c r="F273" s="102"/>
-      <c r="G273" s="102"/>
-      <c r="H273" s="102"/>
-      <c r="I273" s="102"/>
-      <c r="J273" s="102"/>
-      <c r="K273" s="102"/>
-      <c r="L273" s="102"/>
-      <c r="M273" s="102"/>
-      <c r="N273" s="102"/>
-      <c r="O273" s="102"/>
+      <c r="B273" s="81"/>
+      <c r="C273" s="81"/>
+      <c r="D273" s="81"/>
+      <c r="E273" s="81"/>
+      <c r="F273" s="81"/>
+      <c r="G273" s="81"/>
+      <c r="H273" s="81"/>
+      <c r="I273" s="81"/>
+      <c r="J273" s="81"/>
+      <c r="K273" s="81"/>
+      <c r="L273" s="81"/>
+      <c r="M273" s="81"/>
+      <c r="N273" s="81"/>
+      <c r="O273" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C58:C79"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="M80:M101"/>
-    <mergeCell ref="J58:J79"/>
-    <mergeCell ref="J80:J101"/>
+    <mergeCell ref="P227:P234"/>
+    <mergeCell ref="P19:P30"/>
+    <mergeCell ref="P31:P57"/>
+    <mergeCell ref="P58:P79"/>
+    <mergeCell ref="P80:P101"/>
+    <mergeCell ref="P102:P122"/>
+    <mergeCell ref="P196:P198"/>
+    <mergeCell ref="P130:P173"/>
+    <mergeCell ref="P123:P128"/>
+    <mergeCell ref="P174:P177"/>
+    <mergeCell ref="J194:J195"/>
+    <mergeCell ref="J196:J198"/>
+    <mergeCell ref="L212:L213"/>
+    <mergeCell ref="M212:M213"/>
+    <mergeCell ref="N212:N213"/>
+    <mergeCell ref="N178:N185"/>
+    <mergeCell ref="N186:N193"/>
+    <mergeCell ref="N194:N195"/>
+    <mergeCell ref="N196:N198"/>
+    <mergeCell ref="N199:N209"/>
+    <mergeCell ref="M199:M209"/>
+    <mergeCell ref="L214:L221"/>
+    <mergeCell ref="L222:L226"/>
+    <mergeCell ref="M214:M221"/>
+    <mergeCell ref="L123:L128"/>
+    <mergeCell ref="L235:L236"/>
+    <mergeCell ref="M227:M234"/>
+    <mergeCell ref="M235:M236"/>
+    <mergeCell ref="N227:N234"/>
+    <mergeCell ref="N235:N236"/>
+    <mergeCell ref="N214:N221"/>
+    <mergeCell ref="N222:N226"/>
+    <mergeCell ref="N130:N173"/>
+    <mergeCell ref="M178:M185"/>
+    <mergeCell ref="M186:M193"/>
+    <mergeCell ref="L178:L185"/>
+    <mergeCell ref="L186:L193"/>
+    <mergeCell ref="K178:K185"/>
+    <mergeCell ref="K186:K193"/>
+    <mergeCell ref="J178:J185"/>
+    <mergeCell ref="J186:J193"/>
+    <mergeCell ref="M123:M128"/>
+    <mergeCell ref="K4:K18"/>
+    <mergeCell ref="L4:L18"/>
+    <mergeCell ref="M4:M18"/>
+    <mergeCell ref="N4:N18"/>
+    <mergeCell ref="J4:J18"/>
+    <mergeCell ref="J19:J30"/>
+    <mergeCell ref="J31:J57"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="L174:L177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="K174:K177"/>
+    <mergeCell ref="K80:K101"/>
+    <mergeCell ref="N80:N101"/>
+    <mergeCell ref="K102:K122"/>
+    <mergeCell ref="N102:N122"/>
+    <mergeCell ref="K123:K128"/>
+    <mergeCell ref="N123:N128"/>
+    <mergeCell ref="L80:L101"/>
+    <mergeCell ref="L102:L122"/>
+    <mergeCell ref="M102:M122"/>
+    <mergeCell ref="J102:J122"/>
+    <mergeCell ref="J123:J128"/>
+    <mergeCell ref="K130:K173"/>
+    <mergeCell ref="L130:L173"/>
+    <mergeCell ref="K58:K79"/>
+    <mergeCell ref="N58:N79"/>
+    <mergeCell ref="L19:L30"/>
+    <mergeCell ref="L31:L57"/>
+    <mergeCell ref="L58:L79"/>
+    <mergeCell ref="M19:M30"/>
+    <mergeCell ref="M31:M57"/>
+    <mergeCell ref="M58:M79"/>
+    <mergeCell ref="I174:I177"/>
+    <mergeCell ref="J174:J177"/>
+    <mergeCell ref="I130:I173"/>
+    <mergeCell ref="J130:J173"/>
+    <mergeCell ref="M130:M173"/>
+    <mergeCell ref="I227:I234"/>
+    <mergeCell ref="I235:I236"/>
+    <mergeCell ref="N242:N248"/>
+    <mergeCell ref="N249:N252"/>
+    <mergeCell ref="N253:N257"/>
+    <mergeCell ref="I194:I195"/>
+    <mergeCell ref="I196:I198"/>
+    <mergeCell ref="I212:I213"/>
+    <mergeCell ref="K227:K236"/>
+    <mergeCell ref="L194:L195"/>
+    <mergeCell ref="L196:L198"/>
+    <mergeCell ref="L199:L209"/>
+    <mergeCell ref="K194:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K199:K209"/>
+    <mergeCell ref="K214:K221"/>
+    <mergeCell ref="M222:M226"/>
+    <mergeCell ref="L227:L234"/>
+    <mergeCell ref="I222:I226"/>
+    <mergeCell ref="I214:I221"/>
+    <mergeCell ref="K222:K226"/>
+    <mergeCell ref="K211:K213"/>
+    <mergeCell ref="M194:M195"/>
+    <mergeCell ref="M196:M198"/>
+    <mergeCell ref="I102:I122"/>
+    <mergeCell ref="I123:I128"/>
+    <mergeCell ref="I178:I185"/>
+    <mergeCell ref="I186:I193"/>
+    <mergeCell ref="I19:I30"/>
+    <mergeCell ref="I31:I57"/>
+    <mergeCell ref="I58:I79"/>
+    <mergeCell ref="I80:I101"/>
+    <mergeCell ref="I4:I18"/>
+    <mergeCell ref="A238:A257"/>
+    <mergeCell ref="B242:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="D203:D206"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B214:B226"/>
+    <mergeCell ref="C214:C221"/>
+    <mergeCell ref="D214:D217"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="B227:B234"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A210:A237"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="A199:A209"/>
+    <mergeCell ref="B199:B209"/>
+    <mergeCell ref="C199:C209"/>
+    <mergeCell ref="B186:B193"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="D165:D172"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="B178:B185"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E156:E160"/>
+    <mergeCell ref="B102:B122"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C118"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C101"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="D84:D86"/>
     <mergeCell ref="H272:O272"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="A273:O273"/>
@@ -10016,175 +10161,30 @@
     <mergeCell ref="B130:B177"/>
     <mergeCell ref="C130:C173"/>
     <mergeCell ref="D132:D164"/>
-    <mergeCell ref="B102:B122"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C118"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C101"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="D165:D172"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="B178:B185"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E156:E160"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="A199:A209"/>
-    <mergeCell ref="B199:B209"/>
-    <mergeCell ref="C199:C209"/>
-    <mergeCell ref="B186:B193"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A238:A257"/>
-    <mergeCell ref="B242:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="D203:D206"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B214:B226"/>
-    <mergeCell ref="C214:C221"/>
-    <mergeCell ref="D214:D217"/>
-    <mergeCell ref="D218:D221"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="B227:B234"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A210:A237"/>
-    <mergeCell ref="I102:I122"/>
-    <mergeCell ref="I123:I128"/>
-    <mergeCell ref="I178:I185"/>
-    <mergeCell ref="I186:I193"/>
-    <mergeCell ref="I19:I30"/>
-    <mergeCell ref="I31:I57"/>
-    <mergeCell ref="I58:I79"/>
-    <mergeCell ref="I80:I101"/>
-    <mergeCell ref="I4:I18"/>
-    <mergeCell ref="I227:I234"/>
-    <mergeCell ref="I235:I236"/>
-    <mergeCell ref="N242:N248"/>
-    <mergeCell ref="N249:N252"/>
-    <mergeCell ref="N253:N257"/>
-    <mergeCell ref="I194:I195"/>
-    <mergeCell ref="I196:I198"/>
-    <mergeCell ref="I212:I213"/>
-    <mergeCell ref="K227:K236"/>
-    <mergeCell ref="L194:L195"/>
-    <mergeCell ref="L196:L198"/>
-    <mergeCell ref="L199:L209"/>
-    <mergeCell ref="K194:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K199:K209"/>
-    <mergeCell ref="K214:K221"/>
-    <mergeCell ref="M222:M226"/>
-    <mergeCell ref="L227:L234"/>
-    <mergeCell ref="I222:I226"/>
-    <mergeCell ref="I214:I221"/>
-    <mergeCell ref="K222:K226"/>
-    <mergeCell ref="K211:K213"/>
-    <mergeCell ref="M194:M195"/>
-    <mergeCell ref="M196:M198"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C58:C79"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="M80:M101"/>
+    <mergeCell ref="J58:J79"/>
+    <mergeCell ref="J80:J101"/>
     <mergeCell ref="K19:K30"/>
     <mergeCell ref="N19:N30"/>
     <mergeCell ref="K31:K57"/>
     <mergeCell ref="N31:N57"/>
-    <mergeCell ref="K58:K79"/>
-    <mergeCell ref="N58:N79"/>
-    <mergeCell ref="L19:L30"/>
-    <mergeCell ref="L31:L57"/>
-    <mergeCell ref="L58:L79"/>
-    <mergeCell ref="M19:M30"/>
-    <mergeCell ref="M31:M57"/>
-    <mergeCell ref="M58:M79"/>
-    <mergeCell ref="I174:I177"/>
-    <mergeCell ref="J174:J177"/>
-    <mergeCell ref="I130:I173"/>
-    <mergeCell ref="J130:J173"/>
-    <mergeCell ref="K4:K18"/>
-    <mergeCell ref="L4:L18"/>
-    <mergeCell ref="M4:M18"/>
-    <mergeCell ref="N4:N18"/>
-    <mergeCell ref="J4:J18"/>
-    <mergeCell ref="J19:J30"/>
-    <mergeCell ref="J31:J57"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="L174:L177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="K174:K177"/>
-    <mergeCell ref="K80:K101"/>
-    <mergeCell ref="N80:N101"/>
-    <mergeCell ref="K102:K122"/>
-    <mergeCell ref="N102:N122"/>
-    <mergeCell ref="K123:K128"/>
-    <mergeCell ref="N123:N128"/>
-    <mergeCell ref="L80:L101"/>
-    <mergeCell ref="L102:L122"/>
-    <mergeCell ref="M102:M122"/>
-    <mergeCell ref="J102:J122"/>
-    <mergeCell ref="J123:J128"/>
-    <mergeCell ref="K130:K173"/>
-    <mergeCell ref="L130:L173"/>
-    <mergeCell ref="M130:M173"/>
-    <mergeCell ref="M178:M185"/>
-    <mergeCell ref="M186:M193"/>
-    <mergeCell ref="L178:L185"/>
-    <mergeCell ref="L186:L193"/>
-    <mergeCell ref="K178:K185"/>
-    <mergeCell ref="K186:K193"/>
-    <mergeCell ref="J178:J185"/>
-    <mergeCell ref="J186:J193"/>
-    <mergeCell ref="M123:M128"/>
-    <mergeCell ref="L214:L221"/>
-    <mergeCell ref="L222:L226"/>
-    <mergeCell ref="M214:M221"/>
-    <mergeCell ref="L123:L128"/>
-    <mergeCell ref="L235:L236"/>
-    <mergeCell ref="M227:M234"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="N227:N234"/>
-    <mergeCell ref="N235:N236"/>
-    <mergeCell ref="N214:N221"/>
-    <mergeCell ref="N222:N226"/>
-    <mergeCell ref="N130:N173"/>
-    <mergeCell ref="J194:J195"/>
-    <mergeCell ref="J196:J198"/>
-    <mergeCell ref="L212:L213"/>
-    <mergeCell ref="M212:M213"/>
-    <mergeCell ref="N212:N213"/>
-    <mergeCell ref="N178:N185"/>
-    <mergeCell ref="N186:N193"/>
-    <mergeCell ref="N194:N195"/>
-    <mergeCell ref="N196:N198"/>
-    <mergeCell ref="N199:N209"/>
-    <mergeCell ref="M199:M209"/>
-    <mergeCell ref="P227:P234"/>
-    <mergeCell ref="P19:P30"/>
-    <mergeCell ref="P31:P57"/>
-    <mergeCell ref="P58:P79"/>
-    <mergeCell ref="P80:P101"/>
-    <mergeCell ref="P102:P122"/>
-    <mergeCell ref="P196:P198"/>
-    <mergeCell ref="P130:P173"/>
-    <mergeCell ref="P123:P128"/>
-    <mergeCell ref="P174:P177"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
